--- a/Jeremy Thesis/Model Result Averages.xlsx
+++ b/Jeremy Thesis/Model Result Averages.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\SCAL_USIgnite-911\Jeremy Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5B8C27-8397-4333-81C0-04218429BE7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE336E-8D5D-4BE5-94B8-38571FAEF483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6720" yWindow="5325" windowWidth="13770" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Model</t>
   </si>
@@ -425,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve">TS 75-25 TD  </t>
+  </si>
+  <si>
+    <t>F1 Score</t>
   </si>
 </sst>
 </file>
@@ -497,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -520,11 +533,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -553,6 +577,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +902,7 @@
     <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -884,7 +912,7 @@
     <col min="15" max="15" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -930,8 +958,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -948,7 +979,7 @@
         <v>7.8714350375193767E-2</v>
       </c>
       <c r="F2" s="20">
-        <v>0.6058750451638798</v>
+        <v>60.58750451638798</v>
       </c>
       <c r="G2" s="21">
         <v>126287.8</v>
@@ -963,13 +994,13 @@
         <v>3292.2</v>
       </c>
       <c r="K2" s="20">
-        <v>0.91339071101806635</v>
+        <v>91.339071101806638</v>
       </c>
       <c r="L2" s="20">
-        <v>0.97777887042105416</v>
+        <v>97.777887042105419</v>
       </c>
       <c r="M2" s="20">
-        <v>0.2123452012383901</v>
+        <v>21.234520123839008</v>
       </c>
       <c r="N2" s="20">
         <v>0.99940488908936964</v>
@@ -977,8 +1008,11 @@
       <c r="O2" s="20">
         <v>5.9511091063048523E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="20">
+        <v>34.891597599013551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>45</v>
       </c>
@@ -995,7 +1029,7 @@
         <v>8.1921332301103586E-2</v>
       </c>
       <c r="F3" s="20">
-        <v>0.57651186541513944</v>
+        <v>57.651186541513944</v>
       </c>
       <c r="G3" s="21">
         <v>126537.5</v>
@@ -1010,13 +1044,13 @@
         <v>2339.6999999999998</v>
       </c>
       <c r="K3" s="20">
-        <v>0.9084367752895316</v>
+        <v>90.843677528953165</v>
       </c>
       <c r="L3" s="20">
-        <v>0.92843693141954964</v>
+        <v>92.843693141954958</v>
       </c>
       <c r="M3" s="20">
-        <v>0.1544560337998416</v>
+        <v>15.44560337998416</v>
       </c>
       <c r="N3" s="20">
         <v>0.99856769703043757</v>
@@ -1024,8 +1058,11 @@
       <c r="O3" s="20">
         <v>1.4323029695625759E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="20">
+        <v>26.485108069994006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>75</v>
       </c>
@@ -1042,7 +1079,7 @@
         <v>9.7530533697219063E-2</v>
       </c>
       <c r="F4" s="20">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G4" s="21">
         <v>126576</v>
@@ -1057,9 +1094,11 @@
         <v>0</v>
       </c>
       <c r="K4" s="20">
-        <v>0.89221594874072208</v>
-      </c>
-      <c r="L4" s="20"/>
+        <v>89.22159487407221</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
       <c r="M4" s="20">
         <v>0</v>
       </c>
@@ -1069,8 +1108,11 @@
       <c r="O4" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>105</v>
       </c>
@@ -1087,7 +1129,7 @@
         <v>8.2247143822520477E-2</v>
       </c>
       <c r="F5" s="20">
-        <v>0.57753717877563326</v>
+        <v>57.753717877563325</v>
       </c>
       <c r="G5" s="21">
         <v>126415.6</v>
@@ -1102,13 +1144,13 @@
         <v>2391.4</v>
       </c>
       <c r="K5" s="20">
-        <v>0.90794194562512787</v>
+        <v>90.794194562512786</v>
       </c>
       <c r="L5" s="20">
-        <v>0.94531829817827351</v>
+        <v>94.531829817827344</v>
       </c>
       <c r="M5" s="20">
-        <v>0.15616796186246981</v>
+        <v>15.616796186246981</v>
       </c>
       <c r="N5" s="20">
         <v>0.9989063956887968</v>
@@ -1116,8 +1158,11 @@
       <c r="O5" s="20">
         <v>1.0936043112031229E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="20">
+        <v>26.805315198818512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1179,7 @@
         <v>7.5315149336856929E-2</v>
       </c>
       <c r="F6" s="20">
-        <v>0.60790968630674302</v>
+        <v>60.7909686306743</v>
       </c>
       <c r="G6" s="21">
         <v>126509.6</v>
@@ -1149,13 +1194,13 @@
         <v>3310.5</v>
       </c>
       <c r="K6" s="20">
-        <v>0.91508314125201762</v>
+        <v>91.508314125201764</v>
       </c>
       <c r="L6" s="20">
-        <v>0.98772373409489389</v>
+        <v>98.77237340948939</v>
       </c>
       <c r="M6" s="20">
-        <v>0.21614651344998689</v>
+        <v>21.614651344998688</v>
       </c>
       <c r="N6" s="20">
         <v>0.99967285916349924</v>
@@ -1163,8 +1208,11 @@
       <c r="O6" s="20">
         <v>3.271408365006994E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="20">
+        <v>35.467782647141824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>46</v>
       </c>
@@ -1181,7 +1229,7 @@
         <v>8.1014869666087549E-2</v>
       </c>
       <c r="F7" s="20">
-        <v>0.57994815114316622</v>
+        <v>57.994815114316623</v>
       </c>
       <c r="G7" s="21">
         <v>126511.8</v>
@@ -1196,13 +1244,13 @@
         <v>2450.4</v>
       </c>
       <c r="K7" s="20">
-        <v>0.90903592801708655</v>
+        <v>90.903592801708655</v>
       </c>
       <c r="L7" s="20">
-        <v>0.95245965693221557</v>
+        <v>95.245965693221564</v>
       </c>
       <c r="M7" s="20">
-        <v>0.1608612879931727</v>
+        <v>16.086128799317269</v>
       </c>
       <c r="N7" s="20">
         <v>0.99903501429315988</v>
@@ -1210,8 +1258,11 @@
       <c r="O7" s="20">
         <v>9.6498570684018514E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="20">
+        <v>27.523759051514041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>76</v>
       </c>
@@ -1228,7 +1279,7 @@
         <v>9.4780060484561335E-2</v>
       </c>
       <c r="F8" s="20">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G8" s="21">
         <v>126748</v>
@@ -1243,9 +1294,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="20">
-        <v>0.89342835190706782</v>
-      </c>
-      <c r="L8" s="20"/>
+        <v>89.342835190706779</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
       <c r="M8" s="20">
         <v>0</v>
       </c>
@@ -1255,8 +1308,11 @@
       <c r="O8" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>106</v>
       </c>
@@ -1273,7 +1329,7 @@
         <v>8.1636071886480241E-2</v>
       </c>
       <c r="F9" s="20">
-        <v>0.58204308724456</v>
+        <v>58.204308724455998</v>
       </c>
       <c r="G9" s="21">
         <v>126296</v>
@@ -1288,13 +1344,13 @@
         <v>2548.1</v>
       </c>
       <c r="K9" s="20">
-        <v>0.90820345816856629</v>
+        <v>90.82034581685663</v>
       </c>
       <c r="L9" s="20">
-        <v>0.93989343843718764</v>
+        <v>93.989343843718771</v>
       </c>
       <c r="M9" s="20">
-        <v>0.16537512980269989</v>
+        <v>16.537512980269987</v>
       </c>
       <c r="N9" s="20">
         <v>0.99871104468642002</v>
@@ -1302,8 +1358,11 @@
       <c r="O9" s="20">
         <v>1.288955313579896E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="20">
+        <v>28.126195541737363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1379,7 @@
         <v>0.20652333849935539</v>
       </c>
       <c r="F10" s="20">
-        <v>0.62159240823411044</v>
+        <v>62.159240823411047</v>
       </c>
       <c r="G10" s="21">
         <v>13195.4</v>
@@ -1335,13 +1394,13 @@
         <v>6217.7</v>
       </c>
       <c r="K10" s="20">
-        <v>0.62431580639974271</v>
+        <v>62.431580639974271</v>
       </c>
       <c r="L10" s="20">
-        <v>0.71530198183845295</v>
+        <v>71.5301981838453</v>
       </c>
       <c r="M10" s="20">
-        <v>0.40500911933298589</v>
+        <v>40.500911933298589</v>
       </c>
       <c r="N10" s="20">
         <v>0.83817569713523477</v>
@@ -1349,8 +1408,11 @@
       <c r="O10" s="20">
         <v>0.16182430286476529</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="20">
+        <v>51.718460241732181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>47</v>
       </c>
@@ -1367,7 +1429,7 @@
         <v>0.22016090315301501</v>
       </c>
       <c r="F11" s="20">
-        <v>0.61906396907030925</v>
+        <v>61.906396907030924</v>
       </c>
       <c r="G11" s="21">
         <v>13729.3</v>
@@ -1382,13 +1444,13 @@
         <v>5637.2</v>
       </c>
       <c r="K11" s="20">
-        <v>0.62281717317896768</v>
+        <v>62.281717317896771</v>
       </c>
       <c r="L11" s="20">
-        <v>0.73900818105360389</v>
+        <v>73.900818105360386</v>
       </c>
       <c r="M11" s="20">
-        <v>0.36808357819131571</v>
+        <v>36.808357819131572</v>
       </c>
       <c r="N11" s="20">
         <v>0.87004435994930296</v>
@@ -1396,8 +1458,11 @@
       <c r="O11" s="20">
         <v>0.1299556400506971</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="20">
+        <v>49.140782292588355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>77</v>
       </c>
@@ -1414,7 +1479,7 @@
         <v>0.24706957180599559</v>
       </c>
       <c r="F12" s="20">
-        <v>0.54075917444040411</v>
+        <v>54.075917444040414</v>
       </c>
       <c r="G12" s="21">
         <v>8024.5</v>
@@ -1429,13 +1494,13 @@
         <v>8771.2000000000007</v>
       </c>
       <c r="K12" s="20">
-        <v>0.54014150184917198</v>
+        <v>54.014150184917199</v>
       </c>
       <c r="L12" s="20">
-        <v>0.52913010942795946</v>
+        <v>52.91301094279595</v>
       </c>
       <c r="M12" s="20">
-        <v>0.57463312368972752</v>
+        <v>57.463312368972751</v>
       </c>
       <c r="N12" s="20">
         <v>0.5068852251910807</v>
@@ -1443,8 +1508,11 @@
       <c r="O12" s="20">
         <v>0.49311477480891919</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="20">
+        <v>55.094367794810616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>107</v>
       </c>
@@ -1461,7 +1529,7 @@
         <v>0.21703727955679999</v>
       </c>
       <c r="F13" s="20">
-        <v>0.62608632222052107</v>
+        <v>62.608632222052108</v>
       </c>
       <c r="G13" s="21">
         <v>13348.6</v>
@@ -1476,13 +1544,13 @@
         <v>6219.7</v>
       </c>
       <c r="K13" s="20">
-        <v>0.6293069625341694</v>
+        <v>62.93069625341694</v>
       </c>
       <c r="L13" s="20">
-        <v>0.71982260789303532</v>
+        <v>71.982260789303538</v>
       </c>
       <c r="M13" s="20">
-        <v>0.40598563968668422</v>
+        <v>40.598563968668422</v>
       </c>
       <c r="N13" s="20">
         <v>0.84618700475435804</v>
@@ -1490,8 +1558,11 @@
       <c r="O13" s="20">
         <v>0.15381299524564179</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="20">
+        <v>51.916059871589738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1579,7 @@
         <v>0.19489360157546731</v>
       </c>
       <c r="F14" s="20">
-        <v>0.65460021323946882</v>
+        <v>65.460021323946876</v>
       </c>
       <c r="G14" s="21">
         <v>10722.2</v>
@@ -1523,13 +1594,13 @@
         <v>9645.1</v>
       </c>
       <c r="K14" s="20">
-        <v>0.65500241196333819</v>
+        <v>65.500241196333818</v>
       </c>
       <c r="L14" s="20">
-        <v>0.65470954709677476</v>
+        <v>65.470954709677471</v>
       </c>
       <c r="M14" s="20">
-        <v>0.63122382198952875</v>
+        <v>63.122382198952877</v>
       </c>
       <c r="N14" s="20">
         <v>0.67797660448940877</v>
@@ -1537,8 +1608,11 @@
       <c r="O14" s="20">
         <v>0.32202339551059123</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="20">
+        <v>64.275221803303822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>48</v>
       </c>
@@ -1555,7 +1629,7 @@
         <v>0.2145276905371831</v>
       </c>
       <c r="F15" s="20">
-        <v>0.62979411374633831</v>
+        <v>62.979411374633834</v>
       </c>
       <c r="G15" s="21">
         <v>12735.7</v>
@@ -1570,13 +1644,13 @@
         <v>6927.2</v>
       </c>
       <c r="K15" s="20">
-        <v>0.63234925229136518</v>
+        <v>63.234925229136522</v>
       </c>
       <c r="L15" s="20">
-        <v>0.69614719351941601</v>
+        <v>69.614719351941602</v>
       </c>
       <c r="M15" s="20">
-        <v>0.45204907334899502</v>
+        <v>45.204907334899502</v>
       </c>
       <c r="N15" s="20">
         <v>0.80753915414368149</v>
@@ -1584,8 +1658,11 @@
       <c r="O15" s="20">
         <v>0.19246084585631859</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="20">
+        <v>54.81513968047431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>78</v>
       </c>
@@ -1602,7 +1679,7 @@
         <v>0.24684639188448571</v>
       </c>
       <c r="F16" s="20">
-        <v>0.54153420106527039</v>
+        <v>54.153420106527037</v>
       </c>
       <c r="G16" s="21">
         <v>4391.2</v>
@@ -1617,13 +1694,13 @@
         <v>12250.4</v>
       </c>
       <c r="K16" s="20">
-        <v>0.53518572117703811</v>
+        <v>53.518572117703812</v>
       </c>
       <c r="L16" s="20">
-        <v>0.51517470827921874</v>
+        <v>51.517470827921876</v>
       </c>
       <c r="M16" s="20">
-        <v>0.80722192936215076</v>
+        <v>80.72219293621508</v>
       </c>
       <c r="N16" s="20">
         <v>0.27584647276839003</v>
@@ -1631,8 +1708,11 @@
       <c r="O16" s="20">
         <v>0.72415352723160997</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="20">
+        <v>62.894945455618199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>108</v>
       </c>
@@ -1649,7 +1729,7 @@
         <v>0.21739451105677141</v>
       </c>
       <c r="F17" s="20">
-        <v>0.62404022294178496</v>
+        <v>62.404022294178496</v>
       </c>
       <c r="G17" s="21">
         <v>13161.4</v>
@@ -1664,13 +1744,13 @@
         <v>6317.5</v>
       </c>
       <c r="K17" s="20">
-        <v>0.62643190223508605</v>
+        <v>62.643190223508604</v>
       </c>
       <c r="L17" s="20">
-        <v>0.71170057367862172</v>
+        <v>71.170057367862171</v>
       </c>
       <c r="M17" s="20">
-        <v>0.410947765563</v>
+        <v>41.094776556299998</v>
       </c>
       <c r="N17" s="20">
         <v>0.83713268032056987</v>
@@ -1678,8 +1758,11 @@
       <c r="O17" s="20">
         <v>0.16286731967943011</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="20">
+        <v>52.103895811346788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1779,7 @@
         <v>0.16341438391409149</v>
       </c>
       <c r="F18" s="20">
-        <v>0.60448832565356825</v>
+        <v>60.448832565356824</v>
       </c>
       <c r="G18" s="21">
         <v>42058.9</v>
@@ -1711,13 +1794,13 @@
         <v>3250.7</v>
       </c>
       <c r="K18" s="20">
-        <v>0.7884181036732848</v>
+        <v>78.841810367328478</v>
       </c>
       <c r="L18" s="20">
-        <v>0.94185288222268326</v>
+        <v>94.185288222268326</v>
       </c>
       <c r="M18" s="20">
-        <v>0.21373528831612859</v>
+        <v>21.373528831612859</v>
       </c>
       <c r="N18" s="20">
         <v>0.99524136299100818</v>
@@ -1725,8 +1808,11 @@
       <c r="O18" s="20">
         <v>4.7586370089919543E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="20">
+        <v>34.84064694767153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>65</v>
       </c>
@@ -1743,7 +1829,7 @@
         <v>0.17186993319650601</v>
       </c>
       <c r="F19" s="20">
-        <v>0.58115985102719958</v>
+        <v>58.115985102719961</v>
       </c>
       <c r="G19" s="21">
         <v>41675</v>
@@ -1758,13 +1844,13 @@
         <v>2668.6</v>
       </c>
       <c r="K19" s="20">
-        <v>0.7716090413962311</v>
+        <v>77.160904139623113</v>
       </c>
       <c r="L19" s="20">
-        <v>0.83558397119045902</v>
+        <v>83.558397119045907</v>
       </c>
       <c r="M19" s="20">
-        <v>0.1747838616714697</v>
+        <v>17.478386167146969</v>
       </c>
       <c r="N19" s="20">
         <v>0.98753584038292941</v>
@@ -1772,8 +1858,11 @@
       <c r="O19" s="20">
         <v>1.246415961707069E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="20">
+        <v>28.909588861665281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>79</v>
       </c>
@@ -1790,7 +1879,7 @@
         <v>0.19378998828116889</v>
       </c>
       <c r="F20" s="20">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G20" s="21">
         <v>42178</v>
@@ -1805,9 +1894,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="20">
-        <v>0.73392611668899754</v>
-      </c>
-      <c r="L20" s="20"/>
+        <v>73.392611668899761</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0</v>
+      </c>
       <c r="M20" s="20">
         <v>0</v>
       </c>
@@ -1817,8 +1908,11 @@
       <c r="O20" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>109</v>
       </c>
@@ -1835,7 +1929,7 @@
         <v>0.17002845787741289</v>
       </c>
       <c r="F21" s="20">
-        <v>0.59258726413145757</v>
+        <v>59.258726413145759</v>
       </c>
       <c r="G21" s="21">
         <v>41453.199999999997</v>
@@ -1850,13 +1944,13 @@
         <v>3064.2</v>
       </c>
       <c r="K21" s="20">
-        <v>0.77463328055125369</v>
+        <v>77.463328055125373</v>
       </c>
       <c r="L21" s="20">
-        <v>0.85098742131146543</v>
+        <v>85.098742131146537</v>
       </c>
       <c r="M21" s="20">
-        <v>0.19795852445248399</v>
+        <v>19.7958524452484</v>
       </c>
       <c r="N21" s="20">
         <v>0.98721600381043118</v>
@@ -1864,8 +1958,11 @@
       <c r="O21" s="20">
         <v>1.2783996189568939E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="20">
+        <v>32.11990378164856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
@@ -1882,7 +1979,7 @@
         <v>0.1493736857147428</v>
       </c>
       <c r="F22" s="20">
-        <v>0.61819821163709843</v>
+        <v>61.81982116370984</v>
       </c>
       <c r="G22" s="21">
         <v>42020</v>
@@ -1897,13 +1994,13 @@
         <v>3680.1</v>
       </c>
       <c r="K22" s="20">
-        <v>0.79521307139501296</v>
+        <v>79.521307139501289</v>
       </c>
       <c r="L22" s="20">
-        <v>0.94227689131929149</v>
+        <v>94.227689131929154</v>
       </c>
       <c r="M22" s="20">
-        <v>0.2417460421730277</v>
+        <v>24.174604217302768</v>
       </c>
       <c r="N22" s="20">
         <v>0.99465038110116932</v>
@@ -1911,8 +2008,11 @@
       <c r="O22" s="20">
         <v>5.3496188988306588E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="20">
+        <v>38.47758394943633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>66</v>
       </c>
@@ -1929,7 +2029,7 @@
         <v>0.16429429348180619</v>
       </c>
       <c r="F23" s="20">
-        <v>0.5949991590472431</v>
+        <v>59.499915904724311</v>
       </c>
       <c r="G23" s="21">
         <v>41661.800000000003</v>
@@ -1944,13 +2044,13 @@
         <v>3095.2</v>
       </c>
       <c r="K23" s="20">
-        <v>0.77880248481790182</v>
+        <v>77.880248481790176</v>
       </c>
       <c r="L23" s="20">
-        <v>0.85326998023758793</v>
+        <v>85.32699802375879</v>
       </c>
       <c r="M23" s="20">
-        <v>0.20265828586394291</v>
+        <v>20.265828586394292</v>
       </c>
       <c r="N23" s="20">
         <v>0.98734003223054323</v>
@@ -1958,8 +2058,11 @@
       <c r="O23" s="20">
         <v>1.2659967769456821E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="20">
+        <v>32.752647528328026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +2079,7 @@
         <v>0.1949200226135282</v>
       </c>
       <c r="F24" s="20">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G24" s="21">
         <v>42015</v>
@@ -1991,9 +2094,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="20">
-        <v>0.73108980493831444</v>
-      </c>
-      <c r="L24" s="20"/>
+        <v>73.108980493831439</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0</v>
+      </c>
       <c r="M24" s="20">
         <v>0</v>
       </c>
@@ -2003,8 +2108,11 @@
       <c r="O24" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>110</v>
       </c>
@@ -2021,7 +2129,7 @@
         <v>0.16745374505037891</v>
       </c>
       <c r="F25" s="20">
-        <v>0.59229853532577847</v>
+        <v>59.229853532577849</v>
       </c>
       <c r="G25" s="21">
         <v>41656</v>
@@ -2036,13 +2144,13 @@
         <v>3012.4</v>
       </c>
       <c r="K25" s="20">
-        <v>0.77726078407489252</v>
+        <v>77.726078407489254</v>
       </c>
       <c r="L25" s="20">
-        <v>0.85182066595271022</v>
+        <v>85.182066595271024</v>
       </c>
       <c r="M25" s="20">
-        <v>0.19704343275771849</v>
+        <v>19.704343275771848</v>
       </c>
       <c r="N25" s="20">
         <v>0.98755363789383832</v>
@@ -2050,8 +2158,11 @@
       <c r="O25" s="20">
         <v>1.244636210616154E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="20">
+        <v>32.00522704889088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
@@ -2068,7 +2179,7 @@
         <v>7.3406416303840899E-2</v>
       </c>
       <c r="F26" s="17">
-        <v>0.59990967117530525</v>
+        <v>59.990967117530523</v>
       </c>
       <c r="G26" s="18">
         <v>130149.9</v>
@@ -2083,13 +2194,13 @@
         <v>3061.9</v>
       </c>
       <c r="K26" s="17">
-        <v>0.91552614035449431</v>
+        <v>91.552614035449437</v>
       </c>
       <c r="L26" s="17">
-        <v>0.97712846037007195</v>
+        <v>97.712846037007196</v>
       </c>
       <c r="M26" s="17">
-        <v>0.20037301223741899</v>
+        <v>20.037301223741899</v>
       </c>
       <c r="N26" s="17">
         <v>0.99944633011319117</v>
@@ -2097,8 +2208,11 @@
       <c r="O26" s="17">
         <v>5.5366988680868054E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="17">
+        <v>33.255189484171055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +2229,7 @@
         <v>7.7636631788425475E-2</v>
       </c>
       <c r="F27" s="17">
-        <v>0.58249399990331618</v>
+        <v>58.249399990331618</v>
       </c>
       <c r="G27" s="18">
         <v>130011.2</v>
@@ -2130,13 +2244,13 @@
         <v>2547.1</v>
       </c>
       <c r="K27" s="17">
-        <v>0.91103482402424674</v>
+        <v>91.103482402424675</v>
       </c>
       <c r="L27" s="17">
-        <v>0.93169879147701606</v>
+        <v>93.169879147701607</v>
       </c>
       <c r="M27" s="17">
-        <v>0.1664227376674289</v>
+        <v>16.642273766742889</v>
       </c>
       <c r="N27" s="17">
         <v>0.99856526213920327</v>
@@ -2144,8 +2258,11 @@
       <c r="O27" s="17">
         <v>1.4347378607966329E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="17">
+        <v>28.240201005774875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>81</v>
       </c>
@@ -2162,7 +2279,7 @@
         <v>9.0737507784920277E-2</v>
       </c>
       <c r="F28" s="17">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G28" s="18">
         <v>130311</v>
@@ -2177,9 +2294,11 @@
         <v>0</v>
       </c>
       <c r="K28" s="17">
-        <v>0.89558978165398651</v>
-      </c>
-      <c r="L28" s="17"/>
+        <v>89.558978165398656</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
       <c r="M28" s="17">
         <v>0</v>
       </c>
@@ -2189,8 +2308,11 @@
       <c r="O28" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>111</v>
       </c>
@@ -2207,7 +2329,7 @@
         <v>8.2895098728926614E-2</v>
       </c>
       <c r="F29" s="17">
-        <v>0.56487125497902335</v>
+        <v>56.487125497902333</v>
       </c>
       <c r="G29" s="18">
         <v>130027</v>
@@ -2222,13 +2344,13 @@
         <v>2006</v>
       </c>
       <c r="K29" s="17">
-        <v>0.90742458918372826</v>
+        <v>90.742458918372819</v>
       </c>
       <c r="L29" s="17">
-        <v>0.92755802593884085</v>
+        <v>92.755802593884084</v>
       </c>
       <c r="M29" s="17">
-        <v>0.13094849533259351</v>
+        <v>13.094849533259351</v>
       </c>
       <c r="N29" s="17">
         <v>0.99879401462545325</v>
@@ -2236,8 +2358,11 @@
       <c r="O29" s="17">
         <v>1.205985374546795E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="17">
+        <v>22.949755223891565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>22</v>
       </c>
@@ -2254,7 +2379,7 @@
         <v>6.8654120291681206E-2</v>
       </c>
       <c r="F30" s="17">
-        <v>0.61709995700542675</v>
+        <v>61.709995700542677</v>
       </c>
       <c r="G30" s="18">
         <v>130224.2</v>
@@ -2269,13 +2394,13 @@
         <v>3566.9</v>
       </c>
       <c r="K30" s="17">
-        <v>0.91950750156354155</v>
+        <v>91.950750156354161</v>
       </c>
       <c r="L30" s="17">
-        <v>0.9736146383999007</v>
+        <v>97.361463839990066</v>
       </c>
       <c r="M30" s="17">
-        <v>0.23494269529706241</v>
+        <v>23.494269529706241</v>
       </c>
       <c r="N30" s="17">
         <v>0.99925721871379136</v>
@@ -2283,8 +2408,11 @@
       <c r="O30" s="17">
         <v>7.4278128620866937E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="17">
+        <v>37.854000128669654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>50</v>
       </c>
@@ -2301,7 +2429,7 @@
         <v>7.7186542738305414E-2</v>
       </c>
       <c r="F31" s="17">
-        <v>0.58251203432455734</v>
+        <v>58.251203432455732</v>
       </c>
       <c r="G31" s="18">
         <v>130155</v>
@@ -2316,13 +2444,13 @@
         <v>2521.4</v>
       </c>
       <c r="K31" s="17">
-        <v>0.91184649113763983</v>
+        <v>91.184649113763982</v>
       </c>
       <c r="L31" s="17">
-        <v>0.91622068562987258</v>
+        <v>91.622068562987252</v>
       </c>
       <c r="M31" s="17">
-        <v>0.16680338713945489</v>
+        <v>16.680338713945488</v>
       </c>
       <c r="N31" s="17">
         <v>0.99822068150965959</v>
@@ -2330,8 +2458,11 @@
       <c r="O31" s="17">
         <v>1.7793184903402951E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="17">
+        <v>28.222588504336471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>82</v>
       </c>
@@ -2348,7 +2479,7 @@
         <v>9.0113217489540515E-2</v>
       </c>
       <c r="F32" s="17">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G32" s="18">
         <v>130248</v>
@@ -2363,9 +2494,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="17">
-        <v>0.89515680089070337</v>
-      </c>
-      <c r="L32" s="17"/>
+        <v>89.515680089070344</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
       <c r="M32" s="17">
         <v>0</v>
       </c>
@@ -2375,8 +2508,11 @@
       <c r="O32" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>112</v>
       </c>
@@ -2393,7 +2529,7 @@
         <v>7.5267281671560479E-2</v>
       </c>
       <c r="F33" s="17">
-        <v>0.59297659512043233</v>
+        <v>59.297659512043232</v>
       </c>
       <c r="G33" s="18">
         <v>129977</v>
@@ -2408,13 +2544,13 @@
         <v>2871.5</v>
       </c>
       <c r="K33" s="17">
-        <v>0.91302928461956123</v>
+        <v>91.302928461956128</v>
       </c>
       <c r="L33" s="17">
-        <v>0.92687695734217035</v>
+        <v>92.68769573421703</v>
       </c>
       <c r="M33" s="17">
-        <v>0.18770427506863641</v>
+        <v>18.770427506863641</v>
       </c>
       <c r="N33" s="17">
         <v>0.99824891517222836</v>
@@ -2422,8 +2558,11 @@
       <c r="O33" s="17">
         <v>1.751084827771591E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="17">
+        <v>31.218678782061399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>23</v>
       </c>
@@ -2440,7 +2579,7 @@
         <v>0.18888811566488231</v>
       </c>
       <c r="F34" s="17">
-        <v>0.70194360650088361</v>
+        <v>70.194360650088356</v>
       </c>
       <c r="G34" s="18">
         <v>9541.2999999999993</v>
@@ -2455,13 +2594,13 @@
         <v>11359.3</v>
       </c>
       <c r="K34" s="17">
-        <v>0.70275377425103391</v>
+        <v>70.275377425103386</v>
       </c>
       <c r="L34" s="17">
-        <v>0.69025714119808368</v>
+        <v>69.02571411980837</v>
       </c>
       <c r="M34" s="17">
-        <v>0.75162442929927864</v>
+        <v>75.162442929927863</v>
       </c>
       <c r="N34" s="17">
         <v>0.65226278370248847</v>
@@ -2469,8 +2608,11 @@
       <c r="O34" s="17">
         <v>0.34773721629751159</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="17">
+        <v>71.963487215361468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>51</v>
       </c>
@@ -2487,7 +2629,7 @@
         <v>0.20566382420339199</v>
       </c>
       <c r="F35" s="17">
-        <v>0.67424998714885387</v>
+        <v>67.42499871488539</v>
       </c>
       <c r="G35" s="18">
         <v>9978.5</v>
@@ -2502,13 +2644,13 @@
         <v>10057.1</v>
       </c>
       <c r="K35" s="17">
-        <v>0.67366934534817258</v>
+        <v>67.366934534817261</v>
       </c>
       <c r="L35" s="17">
-        <v>0.69492136067630983</v>
+        <v>69.49213606763098</v>
       </c>
       <c r="M35" s="17">
-        <v>0.6557410184521093</v>
+        <v>65.574101845210933</v>
       </c>
       <c r="N35" s="17">
         <v>0.69275895584559843</v>
@@ -2516,8 +2658,11 @@
       <c r="O35" s="17">
         <v>0.30724104415440162</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="17">
+        <v>67.476291312424692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>83</v>
       </c>
@@ -2534,7 +2679,7 @@
         <v>0.22056874275124991</v>
       </c>
       <c r="F36" s="17">
-        <v>0.65448267637106949</v>
+        <v>65.448267637106952</v>
       </c>
       <c r="G36" s="18">
         <v>9808.7000000000007</v>
@@ -2549,13 +2694,13 @@
         <v>9642.9</v>
       </c>
       <c r="K36" s="17">
-        <v>0.65403315288658759</v>
+        <v>65.40331528865876</v>
       </c>
       <c r="L36" s="17">
-        <v>0.6709001479786495</v>
+        <v>67.090014797864953</v>
       </c>
       <c r="M36" s="17">
-        <v>0.63431785291409026</v>
+        <v>63.431785291409028</v>
       </c>
       <c r="N36" s="17">
         <v>0.67464749982804872</v>
@@ -2563,8 +2708,11 @@
       <c r="O36" s="17">
         <v>0.32535250017195128</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="17">
+        <v>65.209634113916024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>113</v>
       </c>
@@ -2581,7 +2729,7 @@
         <v>0.2038868633108894</v>
       </c>
       <c r="F37" s="17">
-        <v>0.67836218840249707</v>
+        <v>67.8362188402497</v>
       </c>
       <c r="G37" s="18">
         <v>9911.7999999999993</v>
@@ -2596,13 +2744,13 @@
         <v>10261.5</v>
       </c>
       <c r="K37" s="17">
-        <v>0.67829931744057037</v>
+        <v>67.829931744057035</v>
       </c>
       <c r="L37" s="17">
-        <v>0.68905538395460986</v>
+        <v>68.905538395460979</v>
       </c>
       <c r="M37" s="17">
-        <v>0.67545418641390209</v>
+        <v>67.545418641390214</v>
       </c>
       <c r="N37" s="17">
         <v>0.68127019039109216</v>
@@ -2610,8 +2758,11 @@
       <c r="O37" s="17">
         <v>0.31872980960890779</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="17">
+        <v>68.218699798123495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2779,7 @@
         <v>0.17598706143677151</v>
       </c>
       <c r="F38" s="17">
-        <v>0.72940519829550998</v>
+        <v>72.940519829550993</v>
       </c>
       <c r="G38" s="18">
         <v>10013.700000000001</v>
@@ -2643,13 +2794,13 @@
         <v>11704.8</v>
       </c>
       <c r="K38" s="17">
-        <v>0.73025453078242164</v>
+        <v>73.025453078242165</v>
       </c>
       <c r="L38" s="17">
-        <v>0.71971176354033595</v>
+        <v>71.971176354033588</v>
       </c>
       <c r="M38" s="17">
-        <v>0.77157547791694137</v>
+        <v>77.157547791694142</v>
       </c>
       <c r="N38" s="17">
         <v>0.68723491867407871</v>
@@ -2657,8 +2808,11 @@
       <c r="O38" s="17">
         <v>0.3127650813259214</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="17">
+        <v>74.474176735185068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>52</v>
       </c>
@@ -2675,7 +2829,7 @@
         <v>0.20259483947080381</v>
       </c>
       <c r="F39" s="17">
-        <v>0.68013973396445282</v>
+        <v>68.01397339644528</v>
       </c>
       <c r="G39" s="18">
         <v>10047</v>
@@ -2690,13 +2844,13 @@
         <v>10172.299999999999</v>
       </c>
       <c r="K39" s="17">
-        <v>0.67984600383309246</v>
+        <v>67.984600383309242</v>
       </c>
       <c r="L39" s="17">
-        <v>0.6951036394274247</v>
+        <v>69.510363942742472</v>
       </c>
       <c r="M39" s="17">
-        <v>0.66795587366209197</v>
+        <v>66.79558736620919</v>
       </c>
       <c r="N39" s="17">
         <v>0.69232359426681367</v>
@@ -2704,8 +2858,11 @@
       <c r="O39" s="17">
         <v>0.30767640573318628</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="17">
+        <v>68.125940841286393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>84</v>
       </c>
@@ -2722,7 +2879,7 @@
         <v>0.22324737239305459</v>
       </c>
       <c r="F40" s="17">
-        <v>0.64444978805132425</v>
+        <v>64.444978805132422</v>
       </c>
       <c r="G40" s="18">
         <v>7971.5</v>
@@ -2737,13 +2894,13 @@
         <v>11268.6</v>
       </c>
       <c r="K40" s="17">
-        <v>0.64692175784270867</v>
+        <v>64.692175784270873</v>
       </c>
       <c r="L40" s="17">
-        <v>0.64369169398772497</v>
+        <v>64.369169398772499</v>
       </c>
       <c r="M40" s="17">
-        <v>0.73834359847988473</v>
+        <v>73.83435984798848</v>
       </c>
       <c r="N40" s="17">
         <v>0.55055597762276398</v>
@@ -2751,8 +2908,11 @@
       <c r="O40" s="17">
         <v>0.44944402237723602</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="17">
+        <v>68.777641821567045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>114</v>
       </c>
@@ -2769,7 +2929,7 @@
         <v>0.20114748489448461</v>
       </c>
       <c r="F41" s="17">
-        <v>0.67826293115667069</v>
+        <v>67.82629311566707</v>
       </c>
       <c r="G41" s="18">
         <v>10035.5</v>
@@ -2784,13 +2944,13 @@
         <v>10112</v>
       </c>
       <c r="K41" s="17">
-        <v>0.67743182811606872</v>
+        <v>67.743182811606871</v>
       </c>
       <c r="L41" s="17">
-        <v>0.70245857472523388</v>
+        <v>70.245857472523383</v>
       </c>
       <c r="M41" s="17">
-        <v>0.65577172503242553</v>
+        <v>65.577172503242551</v>
       </c>
       <c r="N41" s="17">
         <v>0.70075413728091607</v>
@@ -2798,8 +2958,11 @@
       <c r="O41" s="17">
         <v>0.29924586271908388</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="17">
+        <v>67.831275946881306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>25</v>
       </c>
@@ -2816,7 +2979,7 @@
         <v>0.1443161650307076</v>
       </c>
       <c r="F42" s="17">
-        <v>0.62022079110562722</v>
+        <v>62.022079110562721</v>
       </c>
       <c r="G42" s="18">
         <v>42932.1</v>
@@ -2831,13 +2994,13 @@
         <v>3845.3</v>
       </c>
       <c r="K42" s="17">
-        <v>0.79714728787852973</v>
+        <v>79.714728787852977</v>
       </c>
       <c r="L42" s="17">
-        <v>0.87844094636835168</v>
+        <v>87.844094636835166</v>
       </c>
       <c r="M42" s="17">
-        <v>0.25274746943604581</v>
+        <v>25.27474694360458</v>
       </c>
       <c r="N42" s="17">
         <v>0.9876941127752088</v>
@@ -2845,8 +3008,11 @@
       <c r="O42" s="17">
         <v>1.230588722479122E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="17">
+        <v>39.254950482448713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>67</v>
       </c>
@@ -2863,7 +3029,7 @@
         <v>0.15854779670647609</v>
       </c>
       <c r="F43" s="17">
-        <v>0.60233018824105389</v>
+        <v>60.233018824105386</v>
       </c>
       <c r="G43" s="18">
         <v>42658.3</v>
@@ -2878,13 +3044,13 @@
         <v>3390.3</v>
       </c>
       <c r="K43" s="17">
-        <v>0.78472759496259437</v>
+        <v>78.472759496259442</v>
       </c>
       <c r="L43" s="17">
-        <v>0.81782965879647007</v>
+        <v>81.782965879647008</v>
       </c>
       <c r="M43" s="17">
-        <v>0.22206720377284339</v>
+        <v>22.206720377284338</v>
       </c>
       <c r="N43" s="17">
         <v>0.98259317270926427</v>
@@ -2892,8 +3058,11 @@
       <c r="O43" s="17">
         <v>1.740682729073571E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="17">
+        <v>34.929068839137003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>85</v>
       </c>
@@ -2910,7 +3079,7 @@
         <v>0.1795918374139498</v>
       </c>
       <c r="F44" s="17">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G44" s="18">
         <v>43515</v>
@@ -2925,9 +3094,11 @@
         <v>0</v>
       </c>
       <c r="K44" s="17">
-        <v>0.74155177996284993</v>
-      </c>
-      <c r="L44" s="17"/>
+        <v>74.155177996284991</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
       <c r="M44" s="17">
         <v>0</v>
       </c>
@@ -2937,8 +3108,11 @@
       <c r="O44" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>115</v>
       </c>
@@ -2955,7 +3129,7 @@
         <v>0.15722270203873939</v>
       </c>
       <c r="F45" s="17">
-        <v>0.60366814265367175</v>
+        <v>60.366814265367175</v>
       </c>
       <c r="G45" s="18">
         <v>42694.8</v>
@@ -2970,13 +3144,13 @@
         <v>3409</v>
       </c>
       <c r="K45" s="17">
-        <v>0.78566827422845553</v>
+        <v>78.566827422845549</v>
       </c>
       <c r="L45" s="17">
-        <v>0.84113476626934836</v>
+        <v>84.11347662693484</v>
       </c>
       <c r="M45" s="17">
-        <v>0.22220049537218101</v>
+        <v>22.220049537218102</v>
       </c>
       <c r="N45" s="17">
         <v>0.98513578993516226</v>
@@ -2984,8 +3158,11 @@
       <c r="O45" s="17">
         <v>1.4864210064837669E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="17">
+        <v>35.153646922473762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>26</v>
       </c>
@@ -3002,7 +3179,7 @@
         <v>0.13633321207376459</v>
       </c>
       <c r="F46" s="17">
-        <v>0.6339239530516364</v>
+        <v>63.392395305163639</v>
       </c>
       <c r="G46" s="18">
         <v>42613.8</v>
@@ -3017,13 +3194,13 @@
         <v>4375.8999999999996</v>
       </c>
       <c r="K46" s="17">
-        <v>0.80076515396806458</v>
+        <v>80.076515396806457</v>
       </c>
       <c r="L46" s="17">
-        <v>0.83085847666460744</v>
+        <v>83.085847666460751</v>
       </c>
       <c r="M46" s="17">
-        <v>0.28840044816450272</v>
+        <v>28.840044816450273</v>
       </c>
       <c r="N46" s="17">
         <v>0.97944745793876975</v>
@@ -3031,8 +3208,11 @@
       <c r="O46" s="17">
         <v>2.0552542061230122E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="17">
+        <v>42.817609351282911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>68</v>
       </c>
@@ -3049,7 +3229,7 @@
         <v>0.15232133017974059</v>
       </c>
       <c r="F47" s="17">
-        <v>0.61655103092896746</v>
+        <v>61.655103092896745</v>
       </c>
       <c r="G47" s="18">
         <v>42674</v>
@@ -3064,13 +3244,13 @@
         <v>3830.9</v>
       </c>
       <c r="K47" s="17">
-        <v>0.79250353606789248</v>
+        <v>79.250353606789247</v>
       </c>
       <c r="L47" s="17">
-        <v>0.81518185129676213</v>
+        <v>81.518185129676212</v>
       </c>
       <c r="M47" s="17">
-        <v>0.25308185241461317</v>
+        <v>25.308185241461317</v>
       </c>
       <c r="N47" s="17">
         <v>0.98002020944332169</v>
@@ -3078,8 +3258,11 @@
       <c r="O47" s="17">
         <v>1.9979790556678301E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="17">
+        <v>38.624869920077103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>86</v>
       </c>
@@ -3096,7 +3279,7 @@
         <v>0.17526477901873291</v>
       </c>
       <c r="F48" s="17">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G48" s="18">
         <v>43499</v>
@@ -3111,9 +3294,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="17">
-        <v>0.74127911930607859</v>
-      </c>
-      <c r="L48" s="17"/>
+        <v>74.127911930607866</v>
+      </c>
+      <c r="L48" s="17">
+        <v>0</v>
+      </c>
       <c r="M48" s="17">
         <v>0</v>
       </c>
@@ -3123,8 +3308,11 @@
       <c r="O48" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>116</v>
       </c>
@@ -3141,7 +3329,7 @@
         <v>0.15456757477540231</v>
       </c>
       <c r="F49" s="17">
-        <v>0.61593367218412398</v>
+        <v>61.593367218412396</v>
       </c>
       <c r="G49" s="18">
         <v>42543.4</v>
@@ -3156,13 +3344,13 @@
         <v>3836.5</v>
       </c>
       <c r="K49" s="17">
-        <v>0.79037337468686641</v>
+        <v>79.037337468686644</v>
       </c>
       <c r="L49" s="17">
-        <v>0.8328636690522625</v>
+        <v>83.286366905226245</v>
       </c>
       <c r="M49" s="17">
-        <v>0.24965835882084991</v>
+        <v>24.965835882084992</v>
       </c>
       <c r="N49" s="17">
         <v>0.98220898554739811</v>
@@ -3170,8 +3358,11 @@
       <c r="O49" s="17">
         <v>1.7791014452601929E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="17">
+        <v>38.416100805936118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -3188,7 +3379,7 @@
         <v>7.5253836143751002E-2</v>
       </c>
       <c r="F50" s="3">
-        <v>0.60009579744110753</v>
+        <v>60.009579744110752</v>
       </c>
       <c r="G50" s="8">
         <v>128140</v>
@@ -3203,13 +3394,13 @@
         <v>3112</v>
       </c>
       <c r="K50" s="3">
-        <v>0.91324798218758707</v>
+        <v>91.324798218758701</v>
       </c>
       <c r="L50" s="3">
-        <v>0.97251969645820402</v>
+        <v>97.251969645820395</v>
       </c>
       <c r="M50" s="3">
-        <v>0.2008778724502969</v>
+        <v>20.087787245029691</v>
       </c>
       <c r="N50" s="3">
         <v>0.99931372243191807</v>
@@ -3217,8 +3408,11 @@
       <c r="O50" s="3">
         <v>6.8627756808185424E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="3">
+        <v>33.29778290273007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
@@ -3235,7 +3429,7 @@
         <v>7.9775716571341651E-2</v>
       </c>
       <c r="F51" s="3">
-        <v>0.57842915403196005</v>
+        <v>57.842915403196002</v>
       </c>
       <c r="G51" s="8">
         <v>128150</v>
@@ -3250,13 +3444,13 @@
         <v>2432.1</v>
       </c>
       <c r="K51" s="3">
-        <v>0.90858683551349861</v>
+        <v>90.858683551349856</v>
       </c>
       <c r="L51" s="3">
-        <v>0.90098143930157848</v>
+        <v>90.098143930157846</v>
       </c>
       <c r="M51" s="3">
-        <v>0.15896078431372551</v>
+        <v>15.896078431372551</v>
       </c>
       <c r="N51" s="3">
         <v>0.99789752375019469</v>
@@ -3264,8 +3458,11 @@
       <c r="O51" s="3">
         <v>2.102476249805326E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="3">
+        <v>27.024249634094925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>87</v>
       </c>
@@ -3282,7 +3479,7 @@
         <v>9.1802340578482994E-2</v>
       </c>
       <c r="F52" s="3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G52" s="8">
         <v>128488</v>
@@ -3297,9 +3494,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>0.89401614249930417</v>
-      </c>
-      <c r="L52" s="3"/>
+        <v>89.401614249930418</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -3309,8 +3508,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>117</v>
       </c>
@@ -3327,7 +3529,7 @@
         <v>7.9163317652754209E-2</v>
       </c>
       <c r="F53" s="3">
-        <v>0.58286213511260676</v>
+        <v>58.286213511260677</v>
       </c>
       <c r="G53" s="8">
         <v>128053.3</v>
@@ -3342,13 +3544,13 @@
         <v>2583.1</v>
       </c>
       <c r="K53" s="3">
-        <v>0.90896465349290279</v>
+        <v>90.896465349290281</v>
       </c>
       <c r="L53" s="3">
-        <v>0.90009976159395244</v>
+        <v>90.009976159395251</v>
       </c>
       <c r="M53" s="3">
-        <v>0.1679737287033424</v>
+        <v>16.79737287033424</v>
       </c>
       <c r="N53" s="3">
         <v>0.99775054152187115</v>
@@ -3356,8 +3558,11 @@
       <c r="O53" s="3">
         <v>2.2494584781287499E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="3">
+        <v>28.311368933581832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>28</v>
       </c>
@@ -3374,7 +3579,7 @@
         <v>7.0699713078657273E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>0.61701928897903691</v>
+        <v>61.701928897903692</v>
       </c>
       <c r="G54" s="8">
         <v>128272.2</v>
@@ -3389,13 +3594,13 @@
         <v>3608.9</v>
       </c>
       <c r="K54" s="3">
-        <v>0.91762524352908437</v>
+        <v>91.762524352908443</v>
       </c>
       <c r="L54" s="3">
-        <v>0.98471776036961656</v>
+        <v>98.471776036961657</v>
       </c>
       <c r="M54" s="3">
-        <v>0.23448119030602299</v>
+        <v>23.4481190306023</v>
       </c>
       <c r="N54" s="3">
         <v>0.9995573876520506</v>
@@ -3403,8 +3608,11 @@
       <c r="O54" s="3">
         <v>4.426123479494113E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="3">
+        <v>37.876967075634852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
@@ -3421,7 +3629,7 @@
         <v>7.624270230617422E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>0.59440238033878889</v>
+        <v>59.440238033878892</v>
       </c>
       <c r="G55" s="8">
         <v>128298.7</v>
@@ -3436,13 +3644,13 @@
         <v>2891.7</v>
       </c>
       <c r="K55" s="3">
-        <v>0.9128193709991651</v>
+        <v>91.281937099916505</v>
       </c>
       <c r="L55" s="3">
-        <v>0.91176579157885163</v>
+        <v>91.176579157885158</v>
       </c>
       <c r="M55" s="3">
-        <v>0.19098474341192789</v>
+        <v>19.098474341192791</v>
       </c>
       <c r="N55" s="3">
         <v>0.99782001726564995</v>
@@ -3450,8 +3658,11 @@
       <c r="O55" s="3">
         <v>2.179982734350089E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="3">
+        <v>31.581640675951476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>88</v>
       </c>
@@ -3468,7 +3679,7 @@
         <v>9.4500562341451849E-2</v>
       </c>
       <c r="F56" s="3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G56" s="8">
         <v>128485</v>
@@ -3483,9 +3694,11 @@
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>0.89399526857778999</v>
-      </c>
-      <c r="L56" s="3"/>
+        <v>89.399526857778994</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
       <c r="M56" s="3">
         <v>0</v>
       </c>
@@ -3495,8 +3708,11 @@
       <c r="O56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
@@ -3513,7 +3729,7 @@
         <v>7.850777549984031E-2</v>
       </c>
       <c r="F57" s="3">
-        <v>0.58315549719515947</v>
+        <v>58.31554971951595</v>
       </c>
       <c r="G57" s="8">
         <v>128295.3</v>
@@ -3528,13 +3744,13 @@
         <v>2555.3000000000002</v>
       </c>
       <c r="K57" s="3">
-        <v>0.91045505148900641</v>
+        <v>91.045505148900645</v>
       </c>
       <c r="L57" s="3">
-        <v>0.92523821660009609</v>
+        <v>92.523821660009602</v>
       </c>
       <c r="M57" s="3">
-        <v>0.16793506834910621</v>
+        <v>16.79350683491062</v>
       </c>
       <c r="N57" s="3">
         <v>0.99837592604121261</v>
@@ -3542,8 +3758,11 @@
       <c r="O57" s="3">
         <v>1.624073958787275E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="3">
+        <v>28.427321685081701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>29</v>
       </c>
@@ -3560,7 +3779,7 @@
         <v>0.19492279008431609</v>
       </c>
       <c r="F58" s="3">
-        <v>0.68350476198785748</v>
+        <v>68.350476198785742</v>
       </c>
       <c r="G58" s="8">
         <v>10875.4</v>
@@ -3575,13 +3794,13 @@
         <v>10536.2</v>
       </c>
       <c r="K58" s="3">
-        <v>0.6834870878156224</v>
+        <v>68.348708781562237</v>
       </c>
       <c r="L58" s="3">
-        <v>0.67526315952855898</v>
+        <v>67.526315952855896</v>
       </c>
       <c r="M58" s="3">
-        <v>0.68452442827442828</v>
+        <v>68.452442827442823</v>
       </c>
       <c r="N58" s="3">
         <v>0.68248509570128646</v>
@@ -3589,8 +3808,11 @@
       <c r="O58" s="3">
         <v>0.31751490429871349</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="3">
+        <v>67.986225548345232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
@@ -3607,7 +3829,7 @@
         <v>0.20698841131411619</v>
       </c>
       <c r="F59" s="3">
-        <v>0.6604876679727697</v>
+        <v>66.048766797276969</v>
       </c>
       <c r="G59" s="8">
         <v>11708.1</v>
@@ -3622,13 +3844,13 @@
         <v>9045.2999999999993</v>
       </c>
       <c r="K59" s="3">
-        <v>0.66247645800746946</v>
+        <v>66.247645800746952</v>
       </c>
       <c r="L59" s="3">
-        <v>0.67119433367614856</v>
+        <v>67.11943336761486</v>
       </c>
       <c r="M59" s="3">
-        <v>0.59579106837043871</v>
+        <v>59.579106837043874</v>
       </c>
       <c r="N59" s="3">
         <v>0.72518426757510079</v>
@@ -3636,8 +3858,11 @@
       <c r="O59" s="3">
         <v>0.27481573242489932</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="3">
+        <v>63.124892914968754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>89</v>
       </c>
@@ -3654,7 +3879,7 @@
         <v>0.22381013444838321</v>
       </c>
       <c r="F60" s="3">
-        <v>0.6533856938100786</v>
+        <v>65.338569381007858</v>
       </c>
       <c r="G60" s="8">
         <v>9840</v>
@@ -3669,13 +3894,13 @@
         <v>10605.2</v>
       </c>
       <c r="K60" s="3">
-        <v>0.65263829923069561</v>
+        <v>65.263829923069565</v>
       </c>
       <c r="L60" s="3">
-        <v>0.63348704824658819</v>
+        <v>63.348704824658817</v>
       </c>
       <c r="M60" s="3">
-        <v>0.69084750179141419</v>
+        <v>69.084750179141423</v>
       </c>
       <c r="N60" s="3">
         <v>0.61592388582874313</v>
@@ -3683,8 +3908,11 @@
       <c r="O60" s="3">
         <v>0.38407611417125692</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="3">
+        <v>66.092505807662292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>119</v>
       </c>
@@ -3701,7 +3929,7 @@
         <v>0.21338135419921109</v>
       </c>
       <c r="F61" s="3">
-        <v>0.64483279670672011</v>
+        <v>64.483279670672005</v>
       </c>
       <c r="G61" s="8">
         <v>11938.8</v>
@@ -3716,13 +3944,13 @@
         <v>8312.6</v>
       </c>
       <c r="K61" s="3">
-        <v>0.64645194241389214</v>
+        <v>64.64519424138922</v>
       </c>
       <c r="L61" s="3">
-        <v>0.67745405644823653</v>
+        <v>67.745405644823649</v>
       </c>
       <c r="M61" s="3">
-        <v>0.53893931535269701</v>
+        <v>53.893931535269701</v>
       </c>
       <c r="N61" s="3">
         <v>0.75072627806074321</v>
@@ -3730,8 +3958,11 @@
       <c r="O61" s="3">
         <v>0.2492737219392567</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="3">
+        <v>60.031011978396535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>30</v>
       </c>
@@ -3748,7 +3979,7 @@
         <v>0.18432255514360499</v>
       </c>
       <c r="F62" s="3">
-        <v>0.70607625656247652</v>
+        <v>70.607625656247649</v>
       </c>
       <c r="G62" s="8">
         <v>11277.2</v>
@@ -3763,13 +3994,13 @@
         <v>10833.7</v>
       </c>
       <c r="K62" s="3">
-        <v>0.70580968493631691</v>
+        <v>70.580968493631687</v>
       </c>
       <c r="L62" s="3">
-        <v>0.68854016549924679</v>
+        <v>68.85401654992468</v>
       </c>
       <c r="M62" s="3">
-        <v>0.71443550514376153</v>
+        <v>71.443550514376156</v>
       </c>
       <c r="N62" s="3">
         <v>0.69771700798119174</v>
@@ -3777,8 +4008,11 @@
       <c r="O62" s="3">
         <v>0.30228299201880843</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="3">
+        <v>70.124885447909307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>56</v>
       </c>
@@ -3795,7 +4029,7 @@
         <v>0.205228097419619</v>
       </c>
       <c r="F63" s="3">
-        <v>0.66585721976308743</v>
+        <v>66.585721976308747</v>
       </c>
       <c r="G63" s="8">
         <v>11836</v>
@@ -3810,13 +4044,13 @@
         <v>9095</v>
       </c>
       <c r="K63" s="3">
-        <v>0.66814568902224925</v>
+        <v>66.81456890222492</v>
       </c>
       <c r="L63" s="3">
-        <v>0.67454371998123641</v>
+        <v>67.454371998123648</v>
       </c>
       <c r="M63" s="3">
-        <v>0.60235777203788332</v>
+        <v>60.235777203788331</v>
       </c>
       <c r="N63" s="3">
         <v>0.72935666748829187</v>
@@ -3824,8 +4058,11 @@
       <c r="O63" s="3">
         <v>0.27064333251170808</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" s="3">
+        <v>63.641033368603715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>90</v>
       </c>
@@ -3842,7 +4079,7 @@
         <v>0.22927293120575709</v>
       </c>
       <c r="F64" s="3">
-        <v>0.63192601488722988</v>
+        <v>63.192601488722985</v>
       </c>
       <c r="G64" s="8">
         <v>10473.1</v>
@@ -3857,13 +4094,13 @@
         <v>9339.4</v>
       </c>
       <c r="K64" s="3">
-        <v>0.63244166374054334</v>
+        <v>63.244166374054331</v>
       </c>
       <c r="L64" s="3">
-        <v>0.6222412426963051</v>
+        <v>62.224124269630508</v>
       </c>
       <c r="M64" s="3">
-        <v>0.61508166491043215</v>
+        <v>61.508166491043212</v>
       </c>
       <c r="N64" s="3">
         <v>0.64877036486402773</v>
@@ -3871,8 +4108,11 @@
       <c r="O64" s="3">
         <v>0.35122963513597227</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" s="3">
+        <v>61.864073990816927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>120</v>
       </c>
@@ -3889,7 +4129,7 @@
         <v>0.20556501669439639</v>
       </c>
       <c r="F65" s="3">
-        <v>0.66950804486802684</v>
+        <v>66.950804486802681</v>
       </c>
       <c r="G65" s="8">
         <v>11821.5</v>
@@ -3904,13 +4144,13 @@
         <v>9203.6</v>
       </c>
       <c r="K65" s="3">
-        <v>0.67114948766239979</v>
+        <v>67.114948766239976</v>
       </c>
       <c r="L65" s="3">
-        <v>0.6855457037486421</v>
+        <v>68.554570374864213</v>
       </c>
       <c r="M65" s="3">
-        <v>0.60229042601923954</v>
+        <v>60.229042601923958</v>
       </c>
       <c r="N65" s="3">
         <v>0.73672566371681425</v>
@@ -3918,8 +4158,11 @@
       <c r="O65" s="3">
         <v>0.26327433628318581</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" s="3">
+        <v>64.122694560658005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>31</v>
       </c>
@@ -3936,7 +4179,7 @@
         <v>0.1589876729785657</v>
       </c>
       <c r="F66" s="3">
-        <v>0.59201061775836228</v>
+        <v>59.20106177583623</v>
       </c>
       <c r="G66" s="8">
         <v>42476.6</v>
@@ -3951,13 +4194,13 @@
         <v>2925.7</v>
       </c>
       <c r="K66" s="3">
-        <v>0.78162583710640932</v>
+        <v>78.162583710640931</v>
       </c>
       <c r="L66" s="3">
-        <v>0.90681666800777705</v>
+        <v>90.681666800777705</v>
       </c>
       <c r="M66" s="3">
-        <v>0.19115975171512581</v>
+        <v>19.115975171512581</v>
       </c>
       <c r="N66" s="3">
         <v>0.99286148380159889</v>
@@ -3965,8 +4208,11 @@
       <c r="O66" s="3">
         <v>7.1385161984011958E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="3">
+        <v>31.575696161353267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -3983,7 +4229,7 @@
         <v>0.15733050872859081</v>
       </c>
       <c r="F67" s="3">
-        <v>0.61405595033318705</v>
+        <v>61.405595033318704</v>
       </c>
       <c r="G67" s="8">
         <v>42065.7</v>
@@ -3998,13 +4244,13 @@
         <v>3764.2</v>
       </c>
       <c r="K67" s="3">
-        <v>0.78898720884190954</v>
+        <v>78.898720884190951</v>
       </c>
       <c r="L67" s="3">
-        <v>0.81073041601923301</v>
+        <v>81.073041601923308</v>
       </c>
       <c r="M67" s="3">
-        <v>0.24860973515619841</v>
+        <v>24.86097351561984</v>
       </c>
       <c r="N67" s="3">
         <v>0.97950216551017566</v>
@@ -4012,8 +4258,11 @@
       <c r="O67" s="3">
         <v>2.0497834489824431E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="3">
+        <v>38.053022683218884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>91</v>
       </c>
@@ -4030,7 +4279,7 @@
         <v>0.17980852237617229</v>
       </c>
       <c r="F68" s="3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G68" s="8">
         <v>42905</v>
@@ -4045,9 +4294,11 @@
         <v>0</v>
       </c>
       <c r="K68" s="3">
-        <v>0.73863342916659491</v>
-      </c>
-      <c r="L68" s="3"/>
+        <v>73.863342916659491</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
       <c r="M68" s="3">
         <v>0</v>
       </c>
@@ -4057,8 +4308,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>121</v>
       </c>
@@ -4075,7 +4329,7 @@
         <v>0.15638157649987031</v>
       </c>
       <c r="F69" s="3">
-        <v>0.61715189271263815</v>
+        <v>61.715189271263817</v>
       </c>
       <c r="G69" s="8">
         <v>41974.6</v>
@@ -4090,13 +4344,13 @@
         <v>3871.6</v>
       </c>
       <c r="K69" s="3">
-        <v>0.78926782240432458</v>
+        <v>78.926782240432459</v>
       </c>
       <c r="L69" s="3">
-        <v>0.83341979864145888</v>
+        <v>83.341979864145884</v>
       </c>
       <c r="M69" s="3">
-        <v>0.25241882905202762</v>
+        <v>25.241882905202761</v>
       </c>
       <c r="N69" s="3">
         <v>0.98188495637324869</v>
@@ -4104,8 +4358,11 @@
       <c r="O69" s="3">
         <v>1.8115043626751499E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="3">
+        <v>38.748087297044982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>32</v>
       </c>
@@ -4122,7 +4379,7 @@
         <v>0.13936163656343731</v>
       </c>
       <c r="F70" s="3">
-        <v>0.62345760657802074</v>
+        <v>62.345760657802074</v>
       </c>
       <c r="G70" s="8">
         <v>42394.9</v>
@@ -4137,13 +4394,13 @@
         <v>3908.5</v>
       </c>
       <c r="K70" s="3">
-        <v>0.79713877459672555</v>
+        <v>79.71387745967256</v>
       </c>
       <c r="L70" s="3">
-        <v>0.92917431921750793</v>
+        <v>92.91743192175079</v>
       </c>
       <c r="M70" s="3">
-        <v>0.25389762245030528</v>
+        <v>25.389762245030528</v>
       </c>
       <c r="N70" s="3">
         <v>0.99301759070573625</v>
@@ -4151,8 +4408,11 @@
       <c r="O70" s="3">
         <v>6.9824092942636961E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="3">
+        <v>39.88179284492697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
@@ -4169,7 +4429,7 @@
         <v>0.15409403909027319</v>
       </c>
       <c r="F71" s="3">
-        <v>0.61620776484919737</v>
+        <v>61.620776484919737</v>
       </c>
       <c r="G71" s="8">
         <v>42226.1</v>
@@ -4184,13 +4444,13 @@
         <v>3781.7</v>
       </c>
       <c r="K71" s="3">
-        <v>0.79204985625010749</v>
+        <v>79.20498562501075</v>
       </c>
       <c r="L71" s="3">
-        <v>0.82318158414280607</v>
+        <v>82.318158414280603</v>
       </c>
       <c r="M71" s="3">
-        <v>0.25132584568352501</v>
+        <v>25.132584568352499</v>
       </c>
       <c r="N71" s="3">
         <v>0.98108968401486985</v>
@@ -4198,8 +4458,11 @@
       <c r="O71" s="3">
         <v>1.891031598513011E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="3">
+        <v>38.50821353915309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>92</v>
       </c>
@@ -4216,7 +4479,7 @@
         <v>0.17938768703668681</v>
       </c>
       <c r="F72" s="3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G72" s="8">
         <v>42773</v>
@@ -4231,9 +4494,11 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
-        <v>0.73636097577771265</v>
-      </c>
-      <c r="L72" s="3"/>
+        <v>73.636097577771267</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
@@ -4243,8 +4508,11 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>122</v>
       </c>
@@ -4261,7 +4529,7 @@
         <v>0.1607081984534228</v>
       </c>
       <c r="F73" s="3">
-        <v>0.60256073635454233</v>
+        <v>60.256073635454236</v>
       </c>
       <c r="G73" s="8">
         <v>42109.8</v>
@@ -4276,13 +4544,13 @@
         <v>3381.3</v>
       </c>
       <c r="K73" s="3">
-        <v>0.7831545784771119</v>
+        <v>78.315457847711187</v>
       </c>
       <c r="L73" s="3">
-        <v>0.83197605432345678</v>
+        <v>83.197605432345682</v>
       </c>
       <c r="M73" s="3">
-        <v>0.2210867006669282</v>
+        <v>22.10867006669282</v>
       </c>
       <c r="N73" s="3">
         <v>0.98403477204215639</v>
@@ -4290,8 +4558,11 @@
       <c r="O73" s="3">
         <v>1.596522795784357E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="3">
+        <v>34.934070170574316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>33</v>
       </c>
@@ -4308,7 +4579,7 @@
         <v>6.5889095576650666E-2</v>
       </c>
       <c r="F74" s="11">
-        <v>0.63727878145422356</v>
+        <v>63.727878145422359</v>
       </c>
       <c r="G74" s="12">
         <v>129142.2</v>
@@ -4323,13 +4594,13 @@
         <v>4317</v>
       </c>
       <c r="K74" s="11">
-        <v>0.91755436538765633</v>
+        <v>91.755436538765636</v>
       </c>
       <c r="L74" s="11">
-        <v>0.80879375174657797</v>
+        <v>80.879375174657795</v>
       </c>
       <c r="M74" s="11">
-        <v>0.28241528195734661</v>
+        <v>28.241528195734659</v>
       </c>
       <c r="N74" s="11">
         <v>0.99214228095110057</v>
@@ -4337,8 +4608,11 @@
       <c r="O74" s="11">
         <v>7.8577190488994739E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="11">
+        <v>41.86470389995425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>57</v>
       </c>
@@ -4355,7 +4629,7 @@
         <v>6.578804239179406E-2</v>
       </c>
       <c r="F75" s="11">
-        <v>0.61933450618876884</v>
+        <v>61.933450618876883</v>
       </c>
       <c r="G75" s="12">
         <v>129426.7</v>
@@ -4370,13 +4644,13 @@
         <v>3717.1</v>
       </c>
       <c r="K75" s="11">
-        <v>0.9153859375322273</v>
+        <v>91.538593753222727</v>
       </c>
       <c r="L75" s="11">
-        <v>0.80920943010337731</v>
+        <v>80.920943010337737</v>
       </c>
       <c r="M75" s="11">
-        <v>0.24540172971545521</v>
+        <v>24.54017297154552</v>
       </c>
       <c r="N75" s="11">
         <v>0.99326728266208253</v>
@@ -4384,8 +4658,11 @@
       <c r="O75" s="11">
         <v>6.7327173379174848E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="11">
+        <v>37.659642039733406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>93</v>
       </c>
@@ -4402,7 +4679,7 @@
         <v>7.9457663075257479E-2</v>
       </c>
       <c r="F76" s="11">
-        <v>0.51026765687180464</v>
+        <v>51.026765687180465</v>
       </c>
       <c r="G76" s="12">
         <v>129966.8</v>
@@ -4417,13 +4694,13 @@
         <v>342.2</v>
       </c>
       <c r="K76" s="11">
-        <v>0.89589621247017903</v>
+        <v>89.589621247017902</v>
       </c>
       <c r="L76" s="11">
-        <v>0.57668889434353354</v>
+        <v>57.668889434353353</v>
       </c>
       <c r="M76" s="11">
-        <v>2.246438652924572E-2</v>
+        <v>2.2464386529245721</v>
       </c>
       <c r="N76" s="11">
         <v>0.99807092721436363</v>
@@ -4431,8 +4708,11 @@
       <c r="O76" s="11">
         <v>1.929072785636394E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="11">
+        <v>4.3244233631785001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>123</v>
       </c>
@@ -4449,7 +4729,7 @@
         <v>8.132220092634844E-2</v>
       </c>
       <c r="F77" s="11">
-        <v>0.56973893111867036</v>
+        <v>56.973893111867035</v>
       </c>
       <c r="G77" s="12">
         <v>130024.1</v>
@@ -4464,13 +4744,13 @@
         <v>2147.9</v>
       </c>
       <c r="K77" s="11">
-        <v>0.90870464967583575</v>
+        <v>90.870464967583573</v>
       </c>
       <c r="L77" s="11">
-        <v>0.92645925445175503</v>
+        <v>92.645925445175507</v>
       </c>
       <c r="M77" s="11">
-        <v>0.1407905086523335</v>
+        <v>14.07905086523335</v>
       </c>
       <c r="N77" s="11">
         <v>0.99868735358500693</v>
@@ -4478,8 +4758,11 @@
       <c r="O77" s="11">
         <v>1.3126464149928951E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="11">
+        <v>24.443513447227218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>34</v>
       </c>
@@ -4496,7 +4779,7 @@
         <v>6.1051934093586342E-2</v>
       </c>
       <c r="F78" s="11">
-        <v>0.65413028551168217</v>
+        <v>65.413028551168225</v>
       </c>
       <c r="G78" s="12">
         <v>129070.5</v>
@@ -4511,13 +4794,13 @@
         <v>4838</v>
       </c>
       <c r="K78" s="11">
-        <v>0.9206433781823431</v>
+        <v>92.064337818234307</v>
       </c>
       <c r="L78" s="11">
-        <v>0.81391168603717357</v>
+        <v>81.391168603717361</v>
       </c>
       <c r="M78" s="11">
-        <v>0.31676815294964972</v>
+        <v>31.676815294964971</v>
       </c>
       <c r="N78" s="11">
         <v>0.99149241807371458</v>
@@ -4525,8 +4808,11 @@
       <c r="O78" s="11">
         <v>8.5075819262855484E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="11">
+        <v>45.604651743177541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>58</v>
       </c>
@@ -4543,7 +4829,7 @@
         <v>6.6481797096106104E-2</v>
       </c>
       <c r="F79" s="11">
-        <v>0.61945958965520487</v>
+        <v>61.945958965520489</v>
       </c>
       <c r="G79" s="12">
         <v>129216.9</v>
@@ -4558,13 +4844,13 @@
         <v>3774.8</v>
       </c>
       <c r="K79" s="11">
-        <v>0.91434022454297337</v>
+        <v>91.434022454297335</v>
       </c>
       <c r="L79" s="11">
-        <v>0.81463716517805618</v>
+        <v>81.463716517805622</v>
       </c>
       <c r="M79" s="11">
-        <v>0.2455314166775075</v>
+        <v>24.553141667750751</v>
       </c>
       <c r="N79" s="11">
         <v>0.99338776263290196</v>
@@ -4572,8 +4858,11 @@
       <c r="O79" s="11">
         <v>6.612237367097951E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="11">
+        <v>37.733436109610572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>94</v>
       </c>
@@ -4590,7 +4879,7 @@
         <v>7.9883551603777095E-2</v>
       </c>
       <c r="F80" s="11">
-        <v>0.53168871456390843</v>
+        <v>53.168871456390846</v>
       </c>
       <c r="G80" s="12">
         <v>129342.7</v>
@@ -4605,13 +4894,13 @@
         <v>1062.5999999999999</v>
       </c>
       <c r="K80" s="11">
-        <v>0.89655829110834573</v>
+        <v>89.655829110834574</v>
       </c>
       <c r="L80" s="11">
-        <v>0.58170109694175254</v>
+        <v>58.170109694175252</v>
       </c>
       <c r="M80" s="11">
-        <v>6.9251824817518251E-2</v>
+        <v>6.9251824817518255</v>
       </c>
       <c r="N80" s="11">
         <v>0.99412560431029839</v>
@@ -4619,8 +4908,11 @@
       <c r="O80" s="11">
         <v>5.874395689701553E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="11">
+        <v>12.376889668978501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>124</v>
       </c>
@@ -4637,7 +4929,7 @@
         <v>7.7936415824986033E-2</v>
       </c>
       <c r="F81" s="11">
-        <v>0.58358867549605908</v>
+        <v>58.358867549605911</v>
       </c>
       <c r="G81" s="12">
         <v>130089.1</v>
@@ -4652,13 +4944,13 @@
         <v>2560.3000000000002</v>
       </c>
       <c r="K81" s="11">
-        <v>0.91198685467958263</v>
+        <v>91.198685467958256</v>
       </c>
       <c r="L81" s="11">
-        <v>0.94265955456189177</v>
+        <v>94.265955456189175</v>
       </c>
       <c r="M81" s="11">
-        <v>0.16837432592397741</v>
+        <v>16.837432592397743</v>
       </c>
       <c r="N81" s="11">
         <v>0.99880302506814078</v>
@@ -4666,8 +4958,11 @@
       <c r="O81" s="11">
         <v>1.1969749318591889E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="11">
+        <v>28.571526010664083</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>35</v>
       </c>
@@ -4684,7 +4979,7 @@
         <v>0.14716063277840419</v>
       </c>
       <c r="F82" s="11">
-        <v>0.78977432276925075</v>
+        <v>78.977432276925072</v>
       </c>
       <c r="G82" s="12">
         <v>10766.9</v>
@@ -4699,13 +4994,13 @@
         <v>12752.9</v>
       </c>
       <c r="K82" s="11">
-        <v>0.79098032621489822</v>
+        <v>79.098032621489821</v>
       </c>
       <c r="L82" s="11">
-        <v>0.77461982980720934</v>
+        <v>77.461982980720933</v>
       </c>
       <c r="M82" s="11">
-        <v>0.83592684845306775</v>
+        <v>83.592684845306778</v>
       </c>
       <c r="N82" s="11">
         <v>0.74362179708543397</v>
@@ -4713,8 +5008,11 @@
       <c r="O82" s="11">
         <v>0.25637820291456592</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="11">
+        <v>80.410648361890807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>59</v>
       </c>
@@ -4731,7 +5029,7 @@
         <v>0.149656967106056</v>
       </c>
       <c r="F83" s="11">
-        <v>0.78361348555027377</v>
+        <v>78.361348555027377</v>
       </c>
       <c r="G83" s="12">
         <v>10829.6</v>
@@ -4746,13 +5044,13 @@
         <v>12500</v>
       </c>
       <c r="K83" s="11">
-        <v>0.78458382377669411</v>
+        <v>78.458382377669409</v>
       </c>
       <c r="L83" s="11">
-        <v>0.77612350390069551</v>
+        <v>77.612350390069551</v>
       </c>
       <c r="M83" s="11">
-        <v>0.81704686580822283</v>
+        <v>81.704686580822283</v>
       </c>
       <c r="N83" s="11">
         <v>0.75018010529232482</v>
@@ -4760,8 +5058,11 @@
       <c r="O83" s="11">
         <v>0.24981989470767521</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" s="11">
+        <v>79.605959086223592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>95</v>
       </c>
@@ -4778,7 +5079,7 @@
         <v>0.16744472327535159</v>
       </c>
       <c r="F84" s="11">
-        <v>0.75781934054661038</v>
+        <v>75.781934054661036</v>
       </c>
       <c r="G84" s="12">
         <v>9973.4</v>
@@ -4793,13 +5094,13 @@
         <v>12596.9</v>
       </c>
       <c r="K84" s="11">
-        <v>0.75904825962670253</v>
+        <v>75.904825962670259</v>
       </c>
       <c r="L84" s="11">
-        <v>0.73038524384545345</v>
+        <v>73.03852438454534</v>
       </c>
       <c r="M84" s="11">
-        <v>0.83379004500926668</v>
+        <v>83.379004500926669</v>
       </c>
       <c r="N84" s="11">
         <v>0.6818486360839543</v>
@@ -4807,8 +5108,11 @@
       <c r="O84" s="11">
         <v>0.3181513639160457</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="11">
+        <v>77.866969217484851</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>125</v>
       </c>
@@ -4825,7 +5129,7 @@
         <v>0.2091014847929972</v>
       </c>
       <c r="F85" s="11">
-        <v>0.66253908792023408</v>
+        <v>66.25390879202341</v>
       </c>
       <c r="G85" s="12">
         <v>9966.1</v>
@@ -4840,13 +5144,13 @@
         <v>9715</v>
       </c>
       <c r="K85" s="11">
-        <v>0.66188330250546501</v>
+        <v>66.1883302505465</v>
       </c>
       <c r="L85" s="11">
-        <v>0.68296581871946138</v>
+        <v>68.296581871946131</v>
       </c>
       <c r="M85" s="11">
-        <v>0.63704918032786884</v>
+        <v>63.704918032786885</v>
       </c>
       <c r="N85" s="11">
         <v>0.68802899551259933</v>
@@ -4854,8 +5158,11 @@
       <c r="O85" s="11">
         <v>0.31197100448740078</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="11">
+        <v>65.920889584010624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>36</v>
       </c>
@@ -4872,7 +5179,7 @@
         <v>0.14278611410250089</v>
       </c>
       <c r="F86" s="11">
-        <v>0.79538483713748409</v>
+        <v>79.538483713748406</v>
       </c>
       <c r="G86" s="12">
         <v>10987.5</v>
@@ -4887,13 +5194,13 @@
         <v>12693.4</v>
       </c>
       <c r="K86" s="11">
-        <v>0.7963981839582982</v>
+        <v>79.63981839582982</v>
       </c>
       <c r="L86" s="11">
-        <v>0.78770800867531199</v>
+        <v>78.770800867531193</v>
       </c>
       <c r="M86" s="11">
-        <v>0.82817250603510151</v>
+        <v>82.817250603510146</v>
       </c>
       <c r="N86" s="11">
         <v>0.76259716823986679</v>
@@ -4901,8 +5208,11 @@
       <c r="O86" s="11">
         <v>0.2374028317601333</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="11">
+        <v>80.743360617287166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>60</v>
       </c>
@@ -4919,7 +5229,7 @@
         <v>0.15115740148466639</v>
       </c>
       <c r="F87" s="11">
-        <v>0.7812938034694803</v>
+        <v>78.129380346948025</v>
       </c>
       <c r="G87" s="12">
         <v>10773.1</v>
@@ -4934,13 +5244,13 @@
         <v>12488.9</v>
       </c>
       <c r="K87" s="11">
-        <v>0.78231040860938283</v>
+        <v>78.231040860938279</v>
       </c>
       <c r="L87" s="11">
-        <v>0.77328734249961473</v>
+        <v>77.328734249961471</v>
       </c>
       <c r="M87" s="11">
-        <v>0.81632132819138514</v>
+        <v>81.632132819138519</v>
       </c>
       <c r="N87" s="11">
         <v>0.74626627874757534</v>
@@ -4948,8 +5258,11 @@
       <c r="O87" s="11">
         <v>0.25373372125242449</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="11">
+        <v>79.422182596483765</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>96</v>
       </c>
@@ -4966,7 +5279,7 @@
         <v>0.16613240463307991</v>
       </c>
       <c r="F88" s="11">
-        <v>0.7567266284115266</v>
+        <v>75.672662841152658</v>
       </c>
       <c r="G88" s="12">
         <v>9824.2000000000007</v>
@@ -4981,13 +5294,13 @@
         <v>12746.4</v>
       </c>
       <c r="K88" s="11">
-        <v>0.75905834874726763</v>
+        <v>75.905834874726764</v>
       </c>
       <c r="L88" s="11">
-        <v>0.73597385469740517</v>
+        <v>73.597385469740516</v>
       </c>
       <c r="M88" s="11">
-        <v>0.83135924863031563</v>
+        <v>83.135924863031562</v>
       </c>
       <c r="N88" s="11">
         <v>0.68209400819273769</v>
@@ -4995,8 +5308,11 @@
       <c r="O88" s="11">
         <v>0.31790599180726242</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="11">
+        <v>78.076405016101504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>126</v>
       </c>
@@ -5013,7 +5329,7 @@
         <v>0.2100594946658032</v>
       </c>
       <c r="F89" s="11">
-        <v>0.65239392782540651</v>
+        <v>65.239392782540648</v>
       </c>
       <c r="G89" s="12">
         <v>9459</v>
@@ -5028,13 +5344,13 @@
         <v>9936.2999999999993</v>
       </c>
       <c r="K89" s="11">
-        <v>0.65227173364721702</v>
+        <v>65.227173364721708</v>
       </c>
       <c r="L89" s="11">
-        <v>0.66737038746144883</v>
+        <v>66.73703874614489</v>
       </c>
       <c r="M89" s="11">
-        <v>0.64841425215348469</v>
+        <v>64.841425215348465</v>
       </c>
       <c r="N89" s="11">
         <v>0.65637360349732843</v>
@@ -5042,8 +5358,11 @@
       <c r="O89" s="11">
         <v>0.34362639650267163</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="11">
+        <v>65.775577198079546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>37</v>
       </c>
@@ -5060,7 +5379,7 @@
         <v>0.11586720417989831</v>
       </c>
       <c r="F90" s="11">
-        <v>0.74341560606440715</v>
+        <v>74.341560606440709</v>
       </c>
       <c r="G90" s="12">
         <v>40368.1</v>
@@ -5075,13 +5394,13 @@
         <v>8469.6</v>
       </c>
       <c r="K90" s="11">
-        <v>0.83249863630165011</v>
+        <v>83.249863630165009</v>
       </c>
       <c r="L90" s="11">
-        <v>0.72964282316041396</v>
+        <v>72.964282316041391</v>
       </c>
       <c r="M90" s="11">
-        <v>0.55923407065037956</v>
+        <v>55.923407065037956</v>
       </c>
       <c r="N90" s="11">
         <v>0.92759714147843475</v>
@@ -5089,8 +5408,11 @@
       <c r="O90" s="11">
         <v>7.2402858521565291E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="11">
+        <v>63.317315730657143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>71</v>
       </c>
@@ -5107,7 +5429,7 @@
         <v>0.1258288044840839</v>
       </c>
       <c r="F91" s="11">
-        <v>0.72261146504664242</v>
+        <v>72.261146504664239</v>
       </c>
       <c r="G91" s="12">
         <v>40059.699999999997</v>
@@ -5122,13 +5444,13 @@
         <v>7991.3</v>
       </c>
       <c r="K91" s="11">
-        <v>0.81908836765307513</v>
+        <v>81.908836765307512</v>
       </c>
       <c r="L91" s="11">
-        <v>0.71324733927756978</v>
+        <v>71.324733927756981</v>
       </c>
       <c r="M91" s="11">
-        <v>0.51992843201040984</v>
+        <v>51.992843201040984</v>
       </c>
       <c r="N91" s="11">
         <v>0.92529449808287523</v>
@@ -5136,8 +5458,11 @@
       <c r="O91" s="11">
         <v>7.4705501917124773E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="11">
+        <v>60.143505797047183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>97</v>
       </c>
@@ -5154,7 +5479,7 @@
         <v>0.1415963322685527</v>
       </c>
       <c r="F92" s="11">
-        <v>0.68190927888725983</v>
+        <v>68.19092788872598</v>
       </c>
       <c r="G92" s="12">
         <v>39634.300000000003</v>
@@ -5169,13 +5494,13 @@
         <v>6892</v>
       </c>
       <c r="K92" s="11">
-        <v>0.79309798172644208</v>
+        <v>79.309798172644207</v>
       </c>
       <c r="L92" s="11">
-        <v>0.65376460479905663</v>
+        <v>65.37646047990566</v>
       </c>
       <c r="M92" s="11">
-        <v>0.44820185992066081</v>
+        <v>44.820185992066079</v>
       </c>
       <c r="N92" s="11">
         <v>0.91561669785385935</v>
@@ -5183,8 +5508,11 @@
       <c r="O92" s="11">
         <v>8.4383302146140884E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="11">
+        <v>53.181021601371789</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>127</v>
       </c>
@@ -5201,7 +5529,7 @@
         <v>0.15754426983473799</v>
       </c>
       <c r="F93" s="11">
-        <v>0.60154349389127837</v>
+        <v>60.154349389127837</v>
       </c>
       <c r="G93" s="12">
         <v>42840.800000000003</v>
@@ -5216,13 +5544,13 @@
         <v>3285.9</v>
       </c>
       <c r="K93" s="11">
-        <v>0.78628630846856684</v>
+        <v>78.62863084685668</v>
       </c>
       <c r="L93" s="11">
-        <v>0.87284822892729141</v>
+        <v>87.284822892729139</v>
       </c>
       <c r="M93" s="11">
-        <v>0.21414885297184569</v>
+        <v>21.414885297184568</v>
       </c>
       <c r="N93" s="11">
         <v>0.98893813481071091</v>
@@ -5230,8 +5558,11 @@
       <c r="O93" s="11">
         <v>1.106186518928901E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="11">
+        <v>34.391894910465048</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>38</v>
       </c>
@@ -5248,7 +5579,7 @@
         <v>0.11498107983958961</v>
       </c>
       <c r="F94" s="11">
-        <v>0.75387319355705384</v>
+        <v>75.387319355705387</v>
       </c>
       <c r="G94" s="12">
         <v>39885</v>
@@ -5263,13 +5594,13 @@
         <v>9020</v>
       </c>
       <c r="K94" s="11">
-        <v>0.83364584753852444</v>
+        <v>83.364584753852441</v>
       </c>
       <c r="L94" s="11">
-        <v>0.72673296147427746</v>
+        <v>72.673296147427749</v>
       </c>
       <c r="M94" s="11">
-        <v>0.58601871101871095</v>
+        <v>58.601871101871097</v>
       </c>
       <c r="N94" s="11">
         <v>0.92172767609539663</v>
@@ -5277,8 +5608,11 @@
       <c r="O94" s="11">
         <v>7.8272323904603439E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="11">
+        <v>64.883423462595701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>72</v>
       </c>
@@ -5295,7 +5629,7 @@
         <v>0.12219208044294071</v>
       </c>
       <c r="F95" s="11">
-        <v>0.7344428565480341</v>
+        <v>73.444285654803409</v>
       </c>
       <c r="G95" s="12">
         <v>40028.1</v>
@@ -5310,13 +5644,13 @@
         <v>8300.9</v>
       </c>
       <c r="K95" s="11">
-        <v>0.82382721941906456</v>
+        <v>82.382721941906453</v>
       </c>
       <c r="L95" s="11">
-        <v>0.7010354231931214</v>
+        <v>70.10354231931214</v>
       </c>
       <c r="M95" s="11">
-        <v>0.55049406459314276</v>
+        <v>55.049406459314277</v>
       </c>
       <c r="N95" s="11">
         <v>0.91839164850292543</v>
@@ -5324,8 +5658,11 @@
       <c r="O95" s="11">
         <v>8.1608351497074669E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="11">
+        <v>61.671074202170452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>98</v>
       </c>
@@ -5342,7 +5679,7 @@
         <v>0.1441669216429978</v>
       </c>
       <c r="F96" s="11">
-        <v>0.66343356410078791</v>
+        <v>66.343356410078798</v>
       </c>
       <c r="G96" s="12">
         <v>40264.6</v>
@@ -5357,13 +5694,13 @@
         <v>6089.9</v>
       </c>
       <c r="K96" s="11">
-        <v>0.7901694395199782</v>
+        <v>79.016943951997817</v>
       </c>
       <c r="L96" s="11">
-        <v>0.65810810739214931</v>
+        <v>65.810810739214929</v>
       </c>
       <c r="M96" s="11">
-        <v>0.39973088283557601</v>
+        <v>39.973088283557601</v>
       </c>
       <c r="N96" s="11">
         <v>0.9271362453659997</v>
@@ -5371,8 +5708,11 @@
       <c r="O96" s="11">
         <v>7.2863754634000313E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="11">
+        <v>49.736517031288955</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>128</v>
       </c>
@@ -5389,7 +5729,7 @@
         <v>0.16057459127472551</v>
       </c>
       <c r="F97" s="11">
-        <v>0.59365201157575531</v>
+        <v>59.365201157575534</v>
       </c>
       <c r="G97" s="12">
         <v>42885.7</v>
@@ -5404,13 +5744,13 @@
         <v>3044.9</v>
       </c>
       <c r="K97" s="11">
-        <v>0.78294354288831314</v>
+        <v>78.294354288831315</v>
       </c>
       <c r="L97" s="11">
-        <v>0.84765152660584064</v>
+        <v>84.765152660584064</v>
       </c>
       <c r="M97" s="11">
-        <v>0.19992777413000659</v>
+        <v>19.99277741300066</v>
       </c>
       <c r="N97" s="11">
         <v>0.98737624902150378</v>
@@ -5418,8 +5758,11 @@
       <c r="O97" s="11">
         <v>1.262375097849611E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="11">
+        <v>32.354416096837397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>39</v>
       </c>
@@ -5436,7 +5779,7 @@
         <v>5.8181389999894119E-2</v>
       </c>
       <c r="F98" s="14">
-        <v>0.68321978624454049</v>
+        <v>68.321978624454047</v>
       </c>
       <c r="G98" s="15">
         <v>129923.1</v>
@@ -5451,13 +5794,13 @@
         <v>5831.1</v>
       </c>
       <c r="K98" s="14">
-        <v>0.92390648926396024</v>
+        <v>92.390648926396025</v>
       </c>
       <c r="L98" s="14">
-        <v>0.78334205102821219</v>
+        <v>78.334205102821215</v>
       </c>
       <c r="M98" s="14">
-        <v>0.3787166331103462</v>
+        <v>37.871663311034624</v>
       </c>
       <c r="N98" s="14">
         <v>0.98772293937873457</v>
@@ -5465,8 +5808,11 @@
       <c r="O98" s="14">
         <v>1.2277060621265341E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="14">
+        <v>51.058465151280551</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>61</v>
       </c>
@@ -5483,7 +5829,7 @@
         <v>6.2242714221476127E-2</v>
       </c>
       <c r="F99" s="14">
-        <v>0.66320338718298577</v>
+        <v>66.320338718298572</v>
       </c>
       <c r="G99" s="15">
         <v>129998.2</v>
@@ -5498,13 +5844,13 @@
         <v>5188.3</v>
       </c>
       <c r="K99" s="14">
-        <v>0.92004287610167756</v>
+        <v>92.004287610167751</v>
       </c>
       <c r="L99" s="14">
-        <v>0.76234332019338658</v>
+        <v>76.234332019338652</v>
       </c>
       <c r="M99" s="14">
-        <v>0.33870609740174962</v>
+        <v>33.870609740174963</v>
       </c>
       <c r="N99" s="14">
         <v>0.98770067696422204</v>
@@ -5512,8 +5858,11 @@
       <c r="O99" s="14">
         <v>1.229932303577805E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="14">
+        <v>46.902587065885939</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
@@ -5530,7 +5879,7 @@
         <v>7.8084870656743452E-2</v>
       </c>
       <c r="F100" s="14">
-        <v>0.59081891423966637</v>
+        <v>59.081891423966638</v>
       </c>
       <c r="G100" s="15">
         <v>129454.3</v>
@@ -5545,13 +5894,13 @@
         <v>3040.5</v>
       </c>
       <c r="K100" s="14">
-        <v>0.90172389151665711</v>
+        <v>90.172389151665712</v>
       </c>
       <c r="L100" s="14">
-        <v>0.59339365346046802</v>
+        <v>59.339365346046804</v>
       </c>
       <c r="M100" s="14">
-        <v>0.19748636009353079</v>
+        <v>19.748636009353078</v>
       </c>
       <c r="N100" s="14">
         <v>0.98415146838580192</v>
@@ -5559,8 +5908,11 @@
       <c r="O100" s="14">
         <v>1.584853161419807E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="14">
+        <v>29.634622374107732</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>129</v>
       </c>
@@ -5577,7 +5929,7 @@
         <v>7.5271911117173712E-2</v>
       </c>
       <c r="F101" s="14">
-        <v>0.58680553694015136</v>
+        <v>58.680553694015138</v>
       </c>
       <c r="G101" s="15">
         <v>131235.29999999999</v>
@@ -5592,13 +5944,13 @@
         <v>2706.8</v>
       </c>
       <c r="K101" s="14">
-        <v>0.91157382516078533</v>
+        <v>91.157382516078528</v>
       </c>
       <c r="L101" s="14">
-        <v>0.89114487900111783</v>
+        <v>89.114487900111783</v>
       </c>
       <c r="M101" s="14">
-        <v>0.17613222280062471</v>
+        <v>17.61322228006247</v>
       </c>
       <c r="N101" s="14">
         <v>0.99747885107967815</v>
@@ -5606,8 +5958,11 @@
       <c r="O101" s="14">
         <v>2.5211489203219662E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="14">
+        <v>29.413041488641888</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>40</v>
       </c>
@@ -5624,7 +5979,7 @@
         <v>5.5807763202586208E-2</v>
       </c>
       <c r="F102" s="14">
-        <v>0.69810438416335308</v>
+        <v>69.810438416335302</v>
       </c>
       <c r="G102" s="15">
         <v>129717.4</v>
@@ -5639,13 +5994,13 @@
         <v>6283.1</v>
       </c>
       <c r="K102" s="14">
-        <v>0.92558274066764201</v>
+        <v>92.558274066764199</v>
       </c>
       <c r="L102" s="14">
-        <v>0.76608280825771868</v>
+        <v>76.608280825771871</v>
       </c>
       <c r="M102" s="14">
-        <v>0.41082123708643908</v>
+        <v>41.082123708643906</v>
       </c>
       <c r="N102" s="14">
         <v>0.98538753124026712</v>
@@ -5653,8 +6008,11 @@
       <c r="O102" s="14">
         <v>1.461246875973291E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="14">
+        <v>53.48321951039874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>62</v>
       </c>
@@ -5671,7 +6029,7 @@
         <v>6.2212489899036168E-2</v>
       </c>
       <c r="F103" s="14">
-        <v>0.65840400207218785</v>
+        <v>65.840400207218792</v>
       </c>
       <c r="G103" s="15">
         <v>130108.4</v>
@@ -5686,13 +6044,13 @@
         <v>5005.1000000000004</v>
       </c>
       <c r="K103" s="14">
-        <v>0.91954605778065124</v>
+        <v>91.95460577806513</v>
       </c>
       <c r="L103" s="14">
-        <v>0.75588489719335328</v>
+        <v>75.588489719335328</v>
       </c>
       <c r="M103" s="14">
-        <v>0.32908803997632979</v>
+        <v>32.90880399763298</v>
       </c>
       <c r="N103" s="14">
         <v>0.98771996416804586</v>
@@ -5700,8 +6058,11 @@
       <c r="O103" s="14">
         <v>1.228003583195421E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="14">
+        <v>45.854172162852173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>100</v>
       </c>
@@ -5718,7 +6079,7 @@
         <v>7.2967384966995549E-2</v>
       </c>
       <c r="F104" s="14">
-        <v>0.59013943438072647</v>
+        <v>59.013943438072644</v>
       </c>
       <c r="G104" s="15">
         <v>130054.3</v>
@@ -5733,13 +6094,13 @@
         <v>2935.9</v>
       </c>
       <c r="K104" s="14">
-        <v>0.90509545036921091</v>
+        <v>90.509545036921097</v>
       </c>
       <c r="L104" s="14">
-        <v>0.63902400848971741</v>
+        <v>63.902400848971737</v>
       </c>
       <c r="M104" s="14">
-        <v>0.19287215871764549</v>
+        <v>19.287215871764548</v>
       </c>
       <c r="N104" s="14">
         <v>0.98740671004380742</v>
@@ -5747,8 +6108,11 @@
       <c r="O104" s="14">
         <v>1.2593289956192631E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" s="14">
+        <v>29.631087351576387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>130</v>
       </c>
@@ -5765,7 +6129,7 @@
         <v>7.5663266581319638E-2</v>
       </c>
       <c r="F105" s="14">
-        <v>0.58537458429267186</v>
+        <v>58.53745842926719</v>
       </c>
       <c r="G105" s="15">
         <v>131310.79999999999</v>
@@ -5780,13 +6144,13 @@
         <v>2651.4</v>
       </c>
       <c r="K105" s="14">
-        <v>0.91171062034232819</v>
+        <v>91.171062034232818</v>
       </c>
       <c r="L105" s="14">
-        <v>0.8979815852886035</v>
+        <v>89.798158528860355</v>
       </c>
       <c r="M105" s="14">
-        <v>0.17304529434799629</v>
+        <v>17.30452943479963</v>
       </c>
       <c r="N105" s="14">
         <v>0.9977038742373473</v>
@@ -5794,8 +6158,11 @@
       <c r="O105" s="14">
         <v>2.2961257626526259E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105" s="14">
+        <v>29.017289985863133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>41</v>
       </c>
@@ -5812,7 +6179,7 @@
         <v>0.13617622032941071</v>
       </c>
       <c r="F106" s="14">
-        <v>0.80763522944694199</v>
+        <v>80.763522944694202</v>
       </c>
       <c r="G106" s="15">
         <v>11688.7</v>
@@ -5827,13 +6194,13 @@
         <v>12465.8</v>
       </c>
       <c r="K106" s="14">
-        <v>0.80784280936454844</v>
+        <v>80.784280936454849</v>
       </c>
       <c r="L106" s="14">
-        <v>0.80614724172801022</v>
+        <v>80.614724172801019</v>
       </c>
       <c r="M106" s="14">
-        <v>0.81952534350141337</v>
+        <v>81.952534350141335</v>
       </c>
       <c r="N106" s="14">
         <v>0.79574511539247061</v>
@@ -5841,8 +6208,11 @@
       <c r="O106" s="14">
         <v>0.20425488460752941</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106" s="14">
+        <v>81.278124659600991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>63</v>
       </c>
@@ -5859,7 +6229,7 @@
         <v>0.14357388102705229</v>
       </c>
       <c r="F107" s="14">
-        <v>0.79470546321653979</v>
+        <v>79.470546321653984</v>
       </c>
       <c r="G107" s="15">
         <v>11501.9</v>
@@ -5874,13 +6244,13 @@
         <v>12265.1</v>
       </c>
       <c r="K107" s="14">
-        <v>0.79488294314381269</v>
+        <v>79.488294314381264</v>
       </c>
       <c r="L107" s="14">
-        <v>0.79726570657581353</v>
+        <v>79.726570657581348</v>
       </c>
       <c r="M107" s="14">
-        <v>0.8027948684382773</v>
+        <v>80.279486843827726</v>
       </c>
       <c r="N107" s="14">
         <v>0.78661605799480239</v>
@@ -5888,8 +6258,11 @@
       <c r="O107" s="14">
         <v>0.21338394200519761</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="14">
+        <v>80.002073423406983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>101</v>
       </c>
@@ -5906,7 +6279,7 @@
         <v>0.15326393852045711</v>
       </c>
       <c r="F108" s="14">
-        <v>0.78060353847676223</v>
+        <v>78.060353847676225</v>
       </c>
       <c r="G108" s="15">
         <v>11422.4</v>
@@ -5921,13 +6294,13 @@
         <v>11915.6</v>
       </c>
       <c r="K108" s="14">
-        <v>0.7805351170568563</v>
+        <v>78.053511705685636</v>
       </c>
       <c r="L108" s="14">
-        <v>0.79047062500526266</v>
+        <v>79.047062500526266</v>
       </c>
       <c r="M108" s="14">
-        <v>0.77783145113910823</v>
+        <v>77.78314511391082</v>
       </c>
       <c r="N108" s="14">
         <v>0.783375625814416</v>
@@ -5935,8 +6308,11 @@
       <c r="O108" s="14">
         <v>0.216624374185584</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="14">
+        <v>78.410010760462796</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>131</v>
       </c>
@@ -5953,7 +6329,7 @@
         <v>0.19442777729755861</v>
       </c>
       <c r="F109" s="14">
-        <v>0.69846341554303537</v>
+        <v>69.846341554303535</v>
       </c>
       <c r="G109" s="15">
         <v>10534.6</v>
@@ -5968,13 +6344,13 @@
         <v>10336</v>
       </c>
       <c r="K109" s="14">
-        <v>0.69801337792642149</v>
+        <v>69.801337792642144</v>
       </c>
       <c r="L109" s="14">
-        <v>0.71605311570370733</v>
+        <v>71.605311570370731</v>
       </c>
       <c r="M109" s="14">
-        <v>0.67710448738945295</v>
+        <v>67.710448738945288</v>
       </c>
       <c r="N109" s="14">
         <v>0.71982234369661779</v>
@@ -5982,8 +6358,11 @@
       <c r="O109" s="14">
         <v>0.28017765630338232</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109" s="14">
+        <v>69.603435645142582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>42</v>
       </c>
@@ -6000,7 +6379,7 @@
         <v>0.1296696962561755</v>
       </c>
       <c r="F110" s="14">
-        <v>0.81877703595349405</v>
+        <v>81.877703595349402</v>
       </c>
       <c r="G110" s="15">
         <v>11789.3</v>
@@ -6015,13 +6394,13 @@
         <v>12700.4</v>
       </c>
       <c r="K110" s="14">
-        <v>0.81905351170568574</v>
+        <v>81.905351170568579</v>
       </c>
       <c r="L110" s="14">
-        <v>0.81747693496604446</v>
+        <v>81.747693496604441</v>
       </c>
       <c r="M110" s="14">
-        <v>0.83161341016238877</v>
+        <v>83.161341016238879</v>
       </c>
       <c r="N110" s="14">
         <v>0.80594066174459944</v>
@@ -6029,8 +6408,11 @@
       <c r="O110" s="14">
         <v>0.19405933825540059</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" s="14">
+        <v>82.448458160521696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>64</v>
       </c>
@@ -6047,7 +6429,7 @@
         <v>0.14152175805183259</v>
       </c>
       <c r="F111" s="14">
-        <v>0.79622871256950345</v>
+        <v>79.622871256950347</v>
       </c>
       <c r="G111" s="15">
         <v>11563.8</v>
@@ -6062,13 +6444,13 @@
         <v>12247.9</v>
       </c>
       <c r="K111" s="14">
-        <v>0.7963779264214047</v>
+        <v>79.637792642140468</v>
       </c>
       <c r="L111" s="14">
-        <v>0.79775403674479606</v>
+        <v>79.775403674479605</v>
       </c>
       <c r="M111" s="14">
-        <v>0.80419566644780038</v>
+        <v>80.419566644780033</v>
       </c>
       <c r="N111" s="14">
         <v>0.78826175869120663</v>
@@ -6076,8 +6458,11 @@
       <c r="O111" s="14">
         <v>0.21173824130879351</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" s="14">
+        <v>80.096190031788154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>102</v>
       </c>
@@ -6094,7 +6479,7 @@
         <v>0.16647555795714969</v>
       </c>
       <c r="F112" s="14">
-        <v>0.74800427858702112</v>
+        <v>74.800427858702108</v>
       </c>
       <c r="G112" s="15">
         <v>9536.5</v>
@@ -6109,13 +6494,13 @@
         <v>12897.4</v>
       </c>
       <c r="K112" s="14">
-        <v>0.75029765886287625</v>
+        <v>75.02976588628762</v>
       </c>
       <c r="L112" s="14">
-        <v>0.73518353926388169</v>
+        <v>73.518353926388173</v>
       </c>
       <c r="M112" s="14">
-        <v>0.84219668277393234</v>
+        <v>84.219668277393239</v>
       </c>
       <c r="N112" s="14">
         <v>0.65381187440010979</v>
@@ -6123,8 +6508,11 @@
       <c r="O112" s="14">
         <v>0.34618812559989032</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="14">
+        <v>78.506010072591991</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>132</v>
       </c>
@@ -6141,7 +6529,7 @@
         <v>0.19423225038143521</v>
       </c>
       <c r="F113" s="14">
-        <v>0.69782054989715225</v>
+        <v>69.78205498971522</v>
       </c>
       <c r="G113" s="15">
         <v>10505.4</v>
@@ -6156,13 +6544,13 @@
         <v>10333.200000000001</v>
       </c>
       <c r="K113" s="14">
-        <v>0.69694314381270905</v>
+        <v>69.6943143812709</v>
       </c>
       <c r="L113" s="14">
-        <v>0.72233782017355963</v>
+        <v>72.233782017355963</v>
       </c>
       <c r="M113" s="14">
-        <v>0.67002982751912854</v>
+        <v>67.002982751912853</v>
       </c>
       <c r="N113" s="14">
         <v>0.72561127227517619</v>
@@ -6170,8 +6558,11 @@
       <c r="O113" s="14">
         <v>0.27438872772482392</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="14">
+        <v>69.520127943716091</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>43</v>
       </c>
@@ -6188,7 +6579,7 @@
         <v>0.10512909069164331</v>
       </c>
       <c r="F114" s="14">
-        <v>0.77733512099112345</v>
+        <v>77.733512099112346</v>
       </c>
       <c r="G114" s="15">
         <v>41035.599999999999</v>
@@ -6203,13 +6594,13 @@
         <v>9478.1</v>
       </c>
       <c r="K114" s="14">
-        <v>0.85386331750029565</v>
+        <v>85.386331750029569</v>
       </c>
       <c r="L114" s="14">
-        <v>0.77165620119978962</v>
+        <v>77.165620119978968</v>
       </c>
       <c r="M114" s="14">
-        <v>0.6185538080010442</v>
+        <v>61.85538080010442</v>
       </c>
       <c r="N114" s="14">
         <v>0.93611643398120281</v>
@@ -6217,8 +6608,11 @@
       <c r="O114" s="14">
         <v>6.3883566018797328E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="14">
+        <v>68.667450034276953</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>73</v>
       </c>
@@ -6235,7 +6629,7 @@
         <v>0.1145065401707854</v>
       </c>
       <c r="F115" s="14">
-        <v>0.74704651465364547</v>
+        <v>74.704651465364549</v>
       </c>
       <c r="G115" s="15">
         <v>41082.9</v>
@@ -6250,13 +6644,13 @@
         <v>8533.7999999999993</v>
       </c>
       <c r="K115" s="14">
-        <v>0.8387007893980627</v>
+        <v>83.870078939806262</v>
       </c>
       <c r="L115" s="14">
-        <v>0.75624672253259939</v>
+        <v>75.624672253259945</v>
       </c>
       <c r="M115" s="14">
-        <v>0.55685481239804235</v>
+        <v>55.685481239804233</v>
       </c>
       <c r="N115" s="14">
         <v>0.93723821690924836</v>
@@ -6264,8 +6658,11 @@
       <c r="O115" s="14">
         <v>6.2761783090751477E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="14">
+        <v>64.141213089781161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>103</v>
       </c>
@@ -6282,7 +6679,7 @@
         <v>0.1311780663409812</v>
       </c>
       <c r="F116" s="14">
-        <v>0.71223431207015786</v>
+        <v>71.223431207015793</v>
       </c>
       <c r="G116" s="15">
         <v>40487.599999999999</v>
@@ -6297,13 +6694,13 @@
         <v>7650.4</v>
       </c>
       <c r="K116" s="14">
-        <v>0.81370543788772631</v>
+        <v>81.370543788772636</v>
       </c>
       <c r="L116" s="14">
-        <v>0.68826022019481881</v>
+        <v>68.826022019481883</v>
       </c>
       <c r="M116" s="14">
-        <v>0.50364713627386437</v>
+        <v>50.364713627386436</v>
       </c>
       <c r="N116" s="14">
         <v>0.92082148786645135</v>
@@ -6311,8 +6708,11 @@
       <c r="O116" s="14">
         <v>7.9178512133548623E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="14">
+        <v>58.165642997513913</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>133</v>
       </c>
@@ -6329,7 +6729,7 @@
         <v>0.14576054228452581</v>
       </c>
       <c r="F117" s="14">
-        <v>0.64480570190090114</v>
+        <v>64.48057019009012</v>
       </c>
       <c r="G117" s="15">
         <v>42190.1</v>
@@ -6344,13 +6744,13 @@
         <v>5013.5</v>
       </c>
       <c r="K117" s="14">
-        <v>0.79791071519126422</v>
+        <v>79.791071519126419</v>
       </c>
       <c r="L117" s="14">
-        <v>0.74700942166297102</v>
+        <v>74.700942166297096</v>
       </c>
       <c r="M117" s="14">
-        <v>0.32849561001179411</v>
+        <v>32.84956100117941</v>
       </c>
       <c r="N117" s="14">
         <v>0.96111579379000833</v>
@@ -6358,8 +6758,11 @@
       <c r="O117" s="14">
         <v>3.888420620999157E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="14">
+        <v>45.632388213306172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>44</v>
       </c>
@@ -6376,7 +6779,7 @@
         <v>0.1068024660210848</v>
       </c>
       <c r="F118" s="14">
-        <v>0.76976553945716719</v>
+        <v>76.976553945716716</v>
       </c>
       <c r="G118" s="15">
         <v>41042.199999999997</v>
@@ -6391,13 +6794,13 @@
         <v>9210</v>
       </c>
       <c r="K118" s="14">
-        <v>0.84944302642032476</v>
+        <v>84.944302642032483</v>
       </c>
       <c r="L118" s="14">
-        <v>0.75976789163770309</v>
+        <v>75.976789163770306</v>
       </c>
       <c r="M118" s="14">
-        <v>0.60584133666622819</v>
+        <v>60.584133666622819</v>
       </c>
       <c r="N118" s="14">
         <v>0.93368974224810619</v>
@@ -6405,8 +6808,11 @@
       <c r="O118" s="14">
         <v>6.6310257751893892E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="14">
+        <v>67.412959064073277</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>74</v>
       </c>
@@ -6423,7 +6829,7 @@
         <v>0.1117314300284466</v>
       </c>
       <c r="F119" s="14">
-        <v>0.75556970568980031</v>
+        <v>75.556970568980034</v>
       </c>
       <c r="G119" s="15">
         <v>41002</v>
@@ -6438,13 +6844,13 @@
         <v>8842.2999999999993</v>
       </c>
       <c r="K119" s="14">
-        <v>0.84254804847952125</v>
+        <v>84.25480484795213</v>
       </c>
       <c r="L119" s="14">
-        <v>0.76247158156748329</v>
+        <v>76.247158156748327</v>
       </c>
       <c r="M119" s="14">
-        <v>0.5741007661342683</v>
+        <v>57.410076613426831</v>
       </c>
       <c r="N119" s="14">
         <v>0.93703864524533231</v>
@@ -6452,8 +6858,11 @@
       <c r="O119" s="14">
         <v>6.2961354754667825E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="14">
+        <v>65.50120835376994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>104</v>
       </c>
@@ -6470,7 +6879,7 @@
         <v>0.126247759075655</v>
       </c>
       <c r="F120" s="14">
-        <v>0.72667119063575802</v>
+        <v>72.667119063575797</v>
       </c>
       <c r="G120" s="15">
         <v>40557</v>
@@ -6485,13 +6894,13 @@
         <v>8084.1</v>
       </c>
       <c r="K120" s="14">
-        <v>0.82220963843202222</v>
+        <v>82.220963843202227</v>
       </c>
       <c r="L120" s="14">
-        <v>0.70895180305760763</v>
+        <v>70.895180305760761</v>
       </c>
       <c r="M120" s="14">
-        <v>0.52902951377527641</v>
+        <v>52.902951377527643</v>
       </c>
       <c r="N120" s="14">
         <v>0.92431286749623953</v>
@@ -6499,8 +6908,11 @@
       <c r="O120" s="14">
         <v>7.5687132503760426E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="14">
+        <v>60.59161355054615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>134</v>
       </c>
@@ -6517,7 +6929,7 @@
         <v>0.14719913020352959</v>
       </c>
       <c r="F121" s="14">
-        <v>0.64302626311908206</v>
+        <v>64.302626311908213</v>
       </c>
       <c r="G121" s="15">
         <v>42028</v>
@@ -6532,19 +6944,22 @@
         <v>5015.6000000000004</v>
       </c>
       <c r="K121" s="14">
-        <v>0.79520613938707552</v>
+        <v>79.520613938707555</v>
       </c>
       <c r="L121" s="14">
-        <v>0.72714786703089174</v>
+        <v>72.714786703089175</v>
       </c>
       <c r="M121" s="14">
-        <v>0.3289565160359415</v>
+        <v>32.895651603594153</v>
       </c>
       <c r="N121" s="14">
         <v>0.95709601020222268</v>
       </c>
       <c r="O121" s="14">
         <v>4.2903989797777368E-2</v>
+      </c>
+      <c r="P121" s="14">
+        <v>45.298558138132627</v>
       </c>
     </row>
   </sheetData>

--- a/Jeremy Thesis/Model Result Averages.xlsx
+++ b/Jeremy Thesis/Model Result Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\SCAL_USIgnite-911\Jeremy Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE336E-8D5D-4BE5-94B8-38571FAEF483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8350FA9-2593-4C1A-9A3F-D8AA0A45C952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6720" yWindow="5325" windowWidth="13770" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -891,8 +891,8 @@
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
         <v>21.234520123839008</v>
       </c>
       <c r="N2" s="20">
-        <v>0.99940488908936964</v>
+        <v>99.94048890893697</v>
       </c>
       <c r="O2" s="20">
         <v>5.9511091063048523E-4</v>
@@ -1053,7 +1053,7 @@
         <v>15.44560337998416</v>
       </c>
       <c r="N3" s="20">
-        <v>0.99856769703043757</v>
+        <v>99.856769703043753</v>
       </c>
       <c r="O3" s="20">
         <v>1.4323029695625759E-3</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O4" s="20">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>15.616796186246981</v>
       </c>
       <c r="N5" s="20">
-        <v>0.9989063956887968</v>
+        <v>99.890639568879678</v>
       </c>
       <c r="O5" s="20">
         <v>1.0936043112031229E-3</v>
@@ -1203,7 +1203,7 @@
         <v>21.614651344998688</v>
       </c>
       <c r="N6" s="20">
-        <v>0.99967285916349924</v>
+        <v>99.967285916349923</v>
       </c>
       <c r="O6" s="20">
         <v>3.271408365006994E-4</v>
@@ -1253,7 +1253,7 @@
         <v>16.086128799317269</v>
       </c>
       <c r="N7" s="20">
-        <v>0.99903501429315988</v>
+        <v>99.903501429315995</v>
       </c>
       <c r="O7" s="20">
         <v>9.6498570684018514E-4</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O8" s="20">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>16.537512980269987</v>
       </c>
       <c r="N9" s="20">
-        <v>0.99871104468642002</v>
+        <v>99.871104468642002</v>
       </c>
       <c r="O9" s="20">
         <v>1.288955313579896E-3</v>
@@ -1403,7 +1403,7 @@
         <v>40.500911933298589</v>
       </c>
       <c r="N10" s="20">
-        <v>0.83817569713523477</v>
+        <v>83.817569713523483</v>
       </c>
       <c r="O10" s="20">
         <v>0.16182430286476529</v>
@@ -1453,7 +1453,7 @@
         <v>36.808357819131572</v>
       </c>
       <c r="N11" s="20">
-        <v>0.87004435994930296</v>
+        <v>87.00443599493029</v>
       </c>
       <c r="O11" s="20">
         <v>0.1299556400506971</v>
@@ -1503,7 +1503,7 @@
         <v>57.463312368972751</v>
       </c>
       <c r="N12" s="20">
-        <v>0.5068852251910807</v>
+        <v>50.688522519108069</v>
       </c>
       <c r="O12" s="20">
         <v>0.49311477480891919</v>
@@ -1553,7 +1553,7 @@
         <v>40.598563968668422</v>
       </c>
       <c r="N13" s="20">
-        <v>0.84618700475435804</v>
+        <v>84.618700475435801</v>
       </c>
       <c r="O13" s="20">
         <v>0.15381299524564179</v>
@@ -1603,7 +1603,7 @@
         <v>63.122382198952877</v>
       </c>
       <c r="N14" s="20">
-        <v>0.67797660448940877</v>
+        <v>67.797660448940874</v>
       </c>
       <c r="O14" s="20">
         <v>0.32202339551059123</v>
@@ -1653,7 +1653,7 @@
         <v>45.204907334899502</v>
       </c>
       <c r="N15" s="20">
-        <v>0.80753915414368149</v>
+        <v>80.753915414368151</v>
       </c>
       <c r="O15" s="20">
         <v>0.19246084585631859</v>
@@ -1703,7 +1703,7 @@
         <v>80.72219293621508</v>
       </c>
       <c r="N16" s="20">
-        <v>0.27584647276839003</v>
+        <v>27.584647276839004</v>
       </c>
       <c r="O16" s="20">
         <v>0.72415352723160997</v>
@@ -1753,7 +1753,7 @@
         <v>41.094776556299998</v>
       </c>
       <c r="N17" s="20">
-        <v>0.83713268032056987</v>
+        <v>83.713268032056988</v>
       </c>
       <c r="O17" s="20">
         <v>0.16286731967943011</v>
@@ -1803,7 +1803,7 @@
         <v>21.373528831612859</v>
       </c>
       <c r="N18" s="20">
-        <v>0.99524136299100818</v>
+        <v>99.524136299100817</v>
       </c>
       <c r="O18" s="20">
         <v>4.7586370089919543E-3</v>
@@ -1853,7 +1853,7 @@
         <v>17.478386167146969</v>
       </c>
       <c r="N19" s="20">
-        <v>0.98753584038292941</v>
+        <v>98.753584038292942</v>
       </c>
       <c r="O19" s="20">
         <v>1.246415961707069E-2</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O20" s="20">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>19.7958524452484</v>
       </c>
       <c r="N21" s="20">
-        <v>0.98721600381043118</v>
+        <v>98.721600381043118</v>
       </c>
       <c r="O21" s="20">
         <v>1.2783996189568939E-2</v>
@@ -2003,7 +2003,7 @@
         <v>24.174604217302768</v>
       </c>
       <c r="N22" s="20">
-        <v>0.99465038110116932</v>
+        <v>99.465038110116936</v>
       </c>
       <c r="O22" s="20">
         <v>5.3496188988306588E-3</v>
@@ -2053,7 +2053,7 @@
         <v>20.265828586394292</v>
       </c>
       <c r="N23" s="20">
-        <v>0.98734003223054323</v>
+        <v>98.734003223054316</v>
       </c>
       <c r="O23" s="20">
         <v>1.2659967769456821E-2</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O24" s="20">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>19.704343275771848</v>
       </c>
       <c r="N25" s="20">
-        <v>0.98755363789383832</v>
+        <v>98.755363789383836</v>
       </c>
       <c r="O25" s="20">
         <v>1.244636210616154E-2</v>
@@ -2203,7 +2203,7 @@
         <v>20.037301223741899</v>
       </c>
       <c r="N26" s="17">
-        <v>0.99944633011319117</v>
+        <v>99.944633011319112</v>
       </c>
       <c r="O26" s="17">
         <v>5.5366988680868054E-4</v>
@@ -2253,7 +2253,7 @@
         <v>16.642273766742889</v>
       </c>
       <c r="N27" s="17">
-        <v>0.99856526213920327</v>
+        <v>99.856526213920333</v>
       </c>
       <c r="O27" s="17">
         <v>1.4347378607966329E-3</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O28" s="17">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>13.094849533259351</v>
       </c>
       <c r="N29" s="17">
-        <v>0.99879401462545325</v>
+        <v>99.879401462545331</v>
       </c>
       <c r="O29" s="17">
         <v>1.205985374546795E-3</v>
@@ -2403,7 +2403,7 @@
         <v>23.494269529706241</v>
       </c>
       <c r="N30" s="17">
-        <v>0.99925721871379136</v>
+        <v>99.925721871379139</v>
       </c>
       <c r="O30" s="17">
         <v>7.4278128620866937E-4</v>
@@ -2453,7 +2453,7 @@
         <v>16.680338713945488</v>
       </c>
       <c r="N31" s="17">
-        <v>0.99822068150965959</v>
+        <v>99.822068150965961</v>
       </c>
       <c r="O31" s="17">
         <v>1.7793184903402951E-3</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O32" s="17">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>18.770427506863641</v>
       </c>
       <c r="N33" s="17">
-        <v>0.99824891517222836</v>
+        <v>99.824891517222838</v>
       </c>
       <c r="O33" s="17">
         <v>1.751084827771591E-3</v>
@@ -2603,7 +2603,7 @@
         <v>75.162442929927863</v>
       </c>
       <c r="N34" s="17">
-        <v>0.65226278370248847</v>
+        <v>65.226278370248849</v>
       </c>
       <c r="O34" s="17">
         <v>0.34773721629751159</v>
@@ -2653,7 +2653,7 @@
         <v>65.574101845210933</v>
       </c>
       <c r="N35" s="17">
-        <v>0.69275895584559843</v>
+        <v>69.275895584559848</v>
       </c>
       <c r="O35" s="17">
         <v>0.30724104415440162</v>
@@ -2703,7 +2703,7 @@
         <v>63.431785291409028</v>
       </c>
       <c r="N36" s="17">
-        <v>0.67464749982804872</v>
+        <v>67.464749982804875</v>
       </c>
       <c r="O36" s="17">
         <v>0.32535250017195128</v>
@@ -2753,7 +2753,7 @@
         <v>67.545418641390214</v>
       </c>
       <c r="N37" s="17">
-        <v>0.68127019039109216</v>
+        <v>68.127019039109214</v>
       </c>
       <c r="O37" s="17">
         <v>0.31872980960890779</v>
@@ -2803,7 +2803,7 @@
         <v>77.157547791694142</v>
       </c>
       <c r="N38" s="17">
-        <v>0.68723491867407871</v>
+        <v>68.723491867407873</v>
       </c>
       <c r="O38" s="17">
         <v>0.3127650813259214</v>
@@ -2853,7 +2853,7 @@
         <v>66.79558736620919</v>
       </c>
       <c r="N39" s="17">
-        <v>0.69232359426681367</v>
+        <v>69.23235942668137</v>
       </c>
       <c r="O39" s="17">
         <v>0.30767640573318628</v>
@@ -2903,7 +2903,7 @@
         <v>73.83435984798848</v>
       </c>
       <c r="N40" s="17">
-        <v>0.55055597762276398</v>
+        <v>55.055597762276399</v>
       </c>
       <c r="O40" s="17">
         <v>0.44944402237723602</v>
@@ -2953,7 +2953,7 @@
         <v>65.577172503242551</v>
       </c>
       <c r="N41" s="17">
-        <v>0.70075413728091607</v>
+        <v>70.075413728091604</v>
       </c>
       <c r="O41" s="17">
         <v>0.29924586271908388</v>
@@ -3003,7 +3003,7 @@
         <v>25.27474694360458</v>
       </c>
       <c r="N42" s="17">
-        <v>0.9876941127752088</v>
+        <v>98.769411277520874</v>
       </c>
       <c r="O42" s="17">
         <v>1.230588722479122E-2</v>
@@ -3053,7 +3053,7 @@
         <v>22.206720377284338</v>
       </c>
       <c r="N43" s="17">
-        <v>0.98259317270926427</v>
+        <v>98.259317270926431</v>
       </c>
       <c r="O43" s="17">
         <v>1.740682729073571E-2</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O44" s="17">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>22.220049537218102</v>
       </c>
       <c r="N45" s="17">
-        <v>0.98513578993516226</v>
+        <v>98.513578993516234</v>
       </c>
       <c r="O45" s="17">
         <v>1.4864210064837669E-2</v>
@@ -3203,7 +3203,7 @@
         <v>28.840044816450273</v>
       </c>
       <c r="N46" s="17">
-        <v>0.97944745793876975</v>
+        <v>97.944745793876976</v>
       </c>
       <c r="O46" s="17">
         <v>2.0552542061230122E-2</v>
@@ -3253,7 +3253,7 @@
         <v>25.308185241461317</v>
       </c>
       <c r="N47" s="17">
-        <v>0.98002020944332169</v>
+        <v>98.002020944332173</v>
       </c>
       <c r="O47" s="17">
         <v>1.9979790556678301E-2</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O48" s="17">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>24.965835882084992</v>
       </c>
       <c r="N49" s="17">
-        <v>0.98220898554739811</v>
+        <v>98.220898554739804</v>
       </c>
       <c r="O49" s="17">
         <v>1.7791014452601929E-2</v>
@@ -3403,7 +3403,7 @@
         <v>20.087787245029691</v>
       </c>
       <c r="N50" s="3">
-        <v>0.99931372243191807</v>
+        <v>99.931372243191802</v>
       </c>
       <c r="O50" s="3">
         <v>6.8627756808185424E-4</v>
@@ -3453,7 +3453,7 @@
         <v>15.896078431372551</v>
       </c>
       <c r="N51" s="3">
-        <v>0.99789752375019469</v>
+        <v>99.789752375019475</v>
       </c>
       <c r="O51" s="3">
         <v>2.102476249805326E-3</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>16.79737287033424</v>
       </c>
       <c r="N53" s="3">
-        <v>0.99775054152187115</v>
+        <v>99.77505415218711</v>
       </c>
       <c r="O53" s="3">
         <v>2.2494584781287499E-3</v>
@@ -3603,7 +3603,7 @@
         <v>23.4481190306023</v>
       </c>
       <c r="N54" s="3">
-        <v>0.9995573876520506</v>
+        <v>99.955738765205055</v>
       </c>
       <c r="O54" s="3">
         <v>4.426123479494113E-4</v>
@@ -3653,7 +3653,7 @@
         <v>19.098474341192791</v>
       </c>
       <c r="N55" s="3">
-        <v>0.99782001726564995</v>
+        <v>99.782001726564999</v>
       </c>
       <c r="O55" s="3">
         <v>2.179982734350089E-3</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O56" s="3">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>16.79350683491062</v>
       </c>
       <c r="N57" s="3">
-        <v>0.99837592604121261</v>
+        <v>99.837592604121255</v>
       </c>
       <c r="O57" s="3">
         <v>1.624073958787275E-3</v>
@@ -3803,7 +3803,7 @@
         <v>68.452442827442823</v>
       </c>
       <c r="N58" s="3">
-        <v>0.68248509570128646</v>
+        <v>68.248509570128647</v>
       </c>
       <c r="O58" s="3">
         <v>0.31751490429871349</v>
@@ -3853,7 +3853,7 @@
         <v>59.579106837043874</v>
       </c>
       <c r="N59" s="3">
-        <v>0.72518426757510079</v>
+        <v>72.518426757510085</v>
       </c>
       <c r="O59" s="3">
         <v>0.27481573242489932</v>
@@ -3903,7 +3903,7 @@
         <v>69.084750179141423</v>
       </c>
       <c r="N60" s="3">
-        <v>0.61592388582874313</v>
+        <v>61.592388582874314</v>
       </c>
       <c r="O60" s="3">
         <v>0.38407611417125692</v>
@@ -3953,7 +3953,7 @@
         <v>53.893931535269701</v>
       </c>
       <c r="N61" s="3">
-        <v>0.75072627806074321</v>
+        <v>75.072627806074323</v>
       </c>
       <c r="O61" s="3">
         <v>0.2492737219392567</v>
@@ -4003,7 +4003,7 @@
         <v>71.443550514376156</v>
       </c>
       <c r="N62" s="3">
-        <v>0.69771700798119174</v>
+        <v>69.77170079811917</v>
       </c>
       <c r="O62" s="3">
         <v>0.30228299201880843</v>
@@ -4053,7 +4053,7 @@
         <v>60.235777203788331</v>
       </c>
       <c r="N63" s="3">
-        <v>0.72935666748829187</v>
+        <v>72.935666748829192</v>
       </c>
       <c r="O63" s="3">
         <v>0.27064333251170808</v>
@@ -4103,7 +4103,7 @@
         <v>61.508166491043212</v>
       </c>
       <c r="N64" s="3">
-        <v>0.64877036486402773</v>
+        <v>64.877036486402773</v>
       </c>
       <c r="O64" s="3">
         <v>0.35122963513597227</v>
@@ -4153,7 +4153,7 @@
         <v>60.229042601923958</v>
       </c>
       <c r="N65" s="3">
-        <v>0.73672566371681425</v>
+        <v>73.672566371681427</v>
       </c>
       <c r="O65" s="3">
         <v>0.26327433628318581</v>
@@ -4203,7 +4203,7 @@
         <v>19.115975171512581</v>
       </c>
       <c r="N66" s="3">
-        <v>0.99286148380159889</v>
+        <v>99.286148380159887</v>
       </c>
       <c r="O66" s="3">
         <v>7.1385161984011958E-3</v>
@@ -4253,7 +4253,7 @@
         <v>24.86097351561984</v>
       </c>
       <c r="N67" s="3">
-        <v>0.97950216551017566</v>
+        <v>97.950216551017562</v>
       </c>
       <c r="O67" s="3">
         <v>2.0497834489824431E-2</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O68" s="3">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>25.241882905202761</v>
       </c>
       <c r="N69" s="3">
-        <v>0.98188495637324869</v>
+        <v>98.188495637324863</v>
       </c>
       <c r="O69" s="3">
         <v>1.8115043626751499E-2</v>
@@ -4403,7 +4403,7 @@
         <v>25.389762245030528</v>
       </c>
       <c r="N70" s="3">
-        <v>0.99301759070573625</v>
+        <v>99.301759070573624</v>
       </c>
       <c r="O70" s="3">
         <v>6.9824092942636961E-3</v>
@@ -4453,7 +4453,7 @@
         <v>25.132584568352499</v>
       </c>
       <c r="N71" s="3">
-        <v>0.98108968401486985</v>
+        <v>98.10896840148699</v>
       </c>
       <c r="O71" s="3">
         <v>1.891031598513011E-2</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>22.10867006669282</v>
       </c>
       <c r="N73" s="3">
-        <v>0.98403477204215639</v>
+        <v>98.403477204215633</v>
       </c>
       <c r="O73" s="3">
         <v>1.596522795784357E-2</v>
@@ -4603,7 +4603,7 @@
         <v>28.241528195734659</v>
       </c>
       <c r="N74" s="11">
-        <v>0.99214228095110057</v>
+        <v>99.214228095110059</v>
       </c>
       <c r="O74" s="11">
         <v>7.8577190488994739E-3</v>
@@ -4653,7 +4653,7 @@
         <v>24.54017297154552</v>
       </c>
       <c r="N75" s="11">
-        <v>0.99326728266208253</v>
+        <v>99.326728266208249</v>
       </c>
       <c r="O75" s="11">
         <v>6.7327173379174848E-3</v>
@@ -4703,7 +4703,7 @@
         <v>2.2464386529245721</v>
       </c>
       <c r="N76" s="11">
-        <v>0.99807092721436363</v>
+        <v>99.807092721436362</v>
       </c>
       <c r="O76" s="11">
         <v>1.929072785636394E-3</v>
@@ -4753,7 +4753,7 @@
         <v>14.07905086523335</v>
       </c>
       <c r="N77" s="11">
-        <v>0.99868735358500693</v>
+        <v>99.868735358500686</v>
       </c>
       <c r="O77" s="11">
         <v>1.3126464149928951E-3</v>
@@ -4803,7 +4803,7 @@
         <v>31.676815294964971</v>
       </c>
       <c r="N78" s="11">
-        <v>0.99149241807371458</v>
+        <v>99.149241807371453</v>
       </c>
       <c r="O78" s="11">
         <v>8.5075819262855484E-3</v>
@@ -4853,7 +4853,7 @@
         <v>24.553141667750751</v>
       </c>
       <c r="N79" s="11">
-        <v>0.99338776263290196</v>
+        <v>99.3387762632902</v>
       </c>
       <c r="O79" s="11">
         <v>6.612237367097951E-3</v>
@@ -4903,7 +4903,7 @@
         <v>6.9251824817518255</v>
       </c>
       <c r="N80" s="11">
-        <v>0.99412560431029839</v>
+        <v>99.412560431029846</v>
       </c>
       <c r="O80" s="11">
         <v>5.874395689701553E-3</v>
@@ -4953,7 +4953,7 @@
         <v>16.837432592397743</v>
       </c>
       <c r="N81" s="11">
-        <v>0.99880302506814078</v>
+        <v>99.880302506814076</v>
       </c>
       <c r="O81" s="11">
         <v>1.1969749318591889E-3</v>
@@ -5003,7 +5003,7 @@
         <v>83.592684845306778</v>
       </c>
       <c r="N82" s="11">
-        <v>0.74362179708543397</v>
+        <v>74.362179708543394</v>
       </c>
       <c r="O82" s="11">
         <v>0.25637820291456592</v>
@@ -5053,7 +5053,7 @@
         <v>81.704686580822283</v>
       </c>
       <c r="N83" s="11">
-        <v>0.75018010529232482</v>
+        <v>75.018010529232484</v>
       </c>
       <c r="O83" s="11">
         <v>0.24981989470767521</v>
@@ -5103,7 +5103,7 @@
         <v>83.379004500926669</v>
       </c>
       <c r="N84" s="11">
-        <v>0.6818486360839543</v>
+        <v>68.184863608395432</v>
       </c>
       <c r="O84" s="11">
         <v>0.3181513639160457</v>
@@ -5153,7 +5153,7 @@
         <v>63.704918032786885</v>
       </c>
       <c r="N85" s="11">
-        <v>0.68802899551259933</v>
+        <v>68.802899551259927</v>
       </c>
       <c r="O85" s="11">
         <v>0.31197100448740078</v>
@@ -5203,7 +5203,7 @@
         <v>82.817250603510146</v>
       </c>
       <c r="N86" s="11">
-        <v>0.76259716823986679</v>
+        <v>76.259716823986679</v>
       </c>
       <c r="O86" s="11">
         <v>0.2374028317601333</v>
@@ -5253,7 +5253,7 @@
         <v>81.632132819138519</v>
       </c>
       <c r="N87" s="11">
-        <v>0.74626627874757534</v>
+        <v>74.626627874757531</v>
       </c>
       <c r="O87" s="11">
         <v>0.25373372125242449</v>
@@ -5303,7 +5303,7 @@
         <v>83.135924863031562</v>
       </c>
       <c r="N88" s="11">
-        <v>0.68209400819273769</v>
+        <v>68.209400819273768</v>
       </c>
       <c r="O88" s="11">
         <v>0.31790599180726242</v>
@@ -5353,7 +5353,7 @@
         <v>64.841425215348465</v>
       </c>
       <c r="N89" s="11">
-        <v>0.65637360349732843</v>
+        <v>65.637360349732845</v>
       </c>
       <c r="O89" s="11">
         <v>0.34362639650267163</v>
@@ -5403,7 +5403,7 @@
         <v>55.923407065037956</v>
       </c>
       <c r="N90" s="11">
-        <v>0.92759714147843475</v>
+        <v>92.759714147843482</v>
       </c>
       <c r="O90" s="11">
         <v>7.2402858521565291E-2</v>
@@ -5453,7 +5453,7 @@
         <v>51.992843201040984</v>
       </c>
       <c r="N91" s="11">
-        <v>0.92529449808287523</v>
+        <v>92.529449808287524</v>
       </c>
       <c r="O91" s="11">
         <v>7.4705501917124773E-2</v>
@@ -5503,7 +5503,7 @@
         <v>44.820185992066079</v>
       </c>
       <c r="N92" s="11">
-        <v>0.91561669785385935</v>
+        <v>91.561669785385931</v>
       </c>
       <c r="O92" s="11">
         <v>8.4383302146140884E-2</v>
@@ -5553,7 +5553,7 @@
         <v>21.414885297184568</v>
       </c>
       <c r="N93" s="11">
-        <v>0.98893813481071091</v>
+        <v>98.893813481071092</v>
       </c>
       <c r="O93" s="11">
         <v>1.106186518928901E-2</v>
@@ -5603,7 +5603,7 @@
         <v>58.601871101871097</v>
       </c>
       <c r="N94" s="11">
-        <v>0.92172767609539663</v>
+        <v>92.172767609539662</v>
       </c>
       <c r="O94" s="11">
         <v>7.8272323904603439E-2</v>
@@ -5653,7 +5653,7 @@
         <v>55.049406459314277</v>
       </c>
       <c r="N95" s="11">
-        <v>0.91839164850292543</v>
+        <v>91.839164850292548</v>
       </c>
       <c r="O95" s="11">
         <v>8.1608351497074669E-2</v>
@@ -5703,7 +5703,7 @@
         <v>39.973088283557601</v>
       </c>
       <c r="N96" s="11">
-        <v>0.9271362453659997</v>
+        <v>92.713624536599966</v>
       </c>
       <c r="O96" s="11">
         <v>7.2863754634000313E-2</v>
@@ -5753,7 +5753,7 @@
         <v>19.99277741300066</v>
       </c>
       <c r="N97" s="11">
-        <v>0.98737624902150378</v>
+        <v>98.737624902150372</v>
       </c>
       <c r="O97" s="11">
         <v>1.262375097849611E-2</v>
@@ -5803,7 +5803,7 @@
         <v>37.871663311034624</v>
       </c>
       <c r="N98" s="14">
-        <v>0.98772293937873457</v>
+        <v>98.772293937873457</v>
       </c>
       <c r="O98" s="14">
         <v>1.2277060621265341E-2</v>
@@ -5853,7 +5853,7 @@
         <v>33.870609740174963</v>
       </c>
       <c r="N99" s="14">
-        <v>0.98770067696422204</v>
+        <v>98.770067696422203</v>
       </c>
       <c r="O99" s="14">
         <v>1.229932303577805E-2</v>
@@ -5903,7 +5903,7 @@
         <v>19.748636009353078</v>
       </c>
       <c r="N100" s="14">
-        <v>0.98415146838580192</v>
+        <v>98.415146838580199</v>
       </c>
       <c r="O100" s="14">
         <v>1.584853161419807E-2</v>
@@ -5953,7 +5953,7 @@
         <v>17.61322228006247</v>
       </c>
       <c r="N101" s="14">
-        <v>0.99747885107967815</v>
+        <v>99.747885107967818</v>
       </c>
       <c r="O101" s="14">
         <v>2.5211489203219662E-3</v>
@@ -6003,7 +6003,7 @@
         <v>41.082123708643906</v>
       </c>
       <c r="N102" s="14">
-        <v>0.98538753124026712</v>
+        <v>98.538753124026712</v>
       </c>
       <c r="O102" s="14">
         <v>1.461246875973291E-2</v>
@@ -6053,7 +6053,7 @@
         <v>32.90880399763298</v>
       </c>
       <c r="N103" s="14">
-        <v>0.98771996416804586</v>
+        <v>98.771996416804583</v>
       </c>
       <c r="O103" s="14">
         <v>1.228003583195421E-2</v>
@@ -6103,7 +6103,7 @@
         <v>19.287215871764548</v>
       </c>
       <c r="N104" s="14">
-        <v>0.98740671004380742</v>
+        <v>98.740671004380744</v>
       </c>
       <c r="O104" s="14">
         <v>1.2593289956192631E-2</v>
@@ -6153,7 +6153,7 @@
         <v>17.30452943479963</v>
       </c>
       <c r="N105" s="14">
-        <v>0.9977038742373473</v>
+        <v>99.770387423734732</v>
       </c>
       <c r="O105" s="14">
         <v>2.2961257626526259E-3</v>
@@ -6203,7 +6203,7 @@
         <v>81.952534350141335</v>
       </c>
       <c r="N106" s="14">
-        <v>0.79574511539247061</v>
+        <v>79.574511539247055</v>
       </c>
       <c r="O106" s="14">
         <v>0.20425488460752941</v>
@@ -6253,7 +6253,7 @@
         <v>80.279486843827726</v>
       </c>
       <c r="N107" s="14">
-        <v>0.78661605799480239</v>
+        <v>78.661605799480242</v>
       </c>
       <c r="O107" s="14">
         <v>0.21338394200519761</v>
@@ -6303,7 +6303,7 @@
         <v>77.78314511391082</v>
       </c>
       <c r="N108" s="14">
-        <v>0.783375625814416</v>
+        <v>78.337562581441603</v>
       </c>
       <c r="O108" s="14">
         <v>0.216624374185584</v>
@@ -6353,7 +6353,7 @@
         <v>67.710448738945288</v>
       </c>
       <c r="N109" s="14">
-        <v>0.71982234369661779</v>
+        <v>71.982234369661782</v>
       </c>
       <c r="O109" s="14">
         <v>0.28017765630338232</v>
@@ -6403,7 +6403,7 @@
         <v>83.161341016238879</v>
       </c>
       <c r="N110" s="14">
-        <v>0.80594066174459944</v>
+        <v>80.59406617445994</v>
       </c>
       <c r="O110" s="14">
         <v>0.19405933825540059</v>
@@ -6453,7 +6453,7 @@
         <v>80.419566644780033</v>
       </c>
       <c r="N111" s="14">
-        <v>0.78826175869120663</v>
+        <v>78.826175869120661</v>
       </c>
       <c r="O111" s="14">
         <v>0.21173824130879351</v>
@@ -6503,7 +6503,7 @@
         <v>84.219668277393239</v>
       </c>
       <c r="N112" s="14">
-        <v>0.65381187440010979</v>
+        <v>65.381187440010976</v>
       </c>
       <c r="O112" s="14">
         <v>0.34618812559989032</v>
@@ -6553,7 +6553,7 @@
         <v>67.002982751912853</v>
       </c>
       <c r="N113" s="14">
-        <v>0.72561127227517619</v>
+        <v>72.561127227517616</v>
       </c>
       <c r="O113" s="14">
         <v>0.27438872772482392</v>
@@ -6603,7 +6603,7 @@
         <v>61.85538080010442</v>
       </c>
       <c r="N114" s="14">
-        <v>0.93611643398120281</v>
+        <v>93.611643398120279</v>
       </c>
       <c r="O114" s="14">
         <v>6.3883566018797328E-2</v>
@@ -6653,7 +6653,7 @@
         <v>55.685481239804233</v>
       </c>
       <c r="N115" s="14">
-        <v>0.93723821690924836</v>
+        <v>93.723821690924837</v>
       </c>
       <c r="O115" s="14">
         <v>6.2761783090751477E-2</v>
@@ -6703,7 +6703,7 @@
         <v>50.364713627386436</v>
       </c>
       <c r="N116" s="14">
-        <v>0.92082148786645135</v>
+        <v>92.082148786645135</v>
       </c>
       <c r="O116" s="14">
         <v>7.9178512133548623E-2</v>
@@ -6753,7 +6753,7 @@
         <v>32.84956100117941</v>
       </c>
       <c r="N117" s="14">
-        <v>0.96111579379000833</v>
+        <v>96.11157937900083</v>
       </c>
       <c r="O117" s="14">
         <v>3.888420620999157E-2</v>
@@ -6803,7 +6803,7 @@
         <v>60.584133666622819</v>
       </c>
       <c r="N118" s="14">
-        <v>0.93368974224810619</v>
+        <v>93.368974224810614</v>
       </c>
       <c r="O118" s="14">
         <v>6.6310257751893892E-2</v>
@@ -6853,7 +6853,7 @@
         <v>57.410076613426831</v>
       </c>
       <c r="N119" s="14">
-        <v>0.93703864524533231</v>
+        <v>93.70386452453323</v>
       </c>
       <c r="O119" s="14">
         <v>6.2961354754667825E-2</v>
@@ -6903,7 +6903,7 @@
         <v>52.902951377527643</v>
       </c>
       <c r="N120" s="14">
-        <v>0.92431286749623953</v>
+        <v>92.431286749623951</v>
       </c>
       <c r="O120" s="14">
         <v>7.5687132503760426E-2</v>
@@ -6953,7 +6953,7 @@
         <v>32.895651603594153</v>
       </c>
       <c r="N121" s="14">
-        <v>0.95709601020222268</v>
+        <v>95.709601020222266</v>
       </c>
       <c r="O121" s="14">
         <v>4.2903989797777368E-2</v>
